--- a/data/MI_traits_Est_by_Curtis.xlsx
+++ b/data/MI_traits_Est_by_Curtis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/essing/Dropbox/Desktop/Rcode/Metabolic_Index/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/essing/Library/CloudStorage/Dropbox/Desktop/Rcode/Metabolic_Index/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E69781F3-13F3-4341-9020-B5B835320E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931FBD0D-99AC-D045-BE0C-881DBBBEFE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="22620" windowHeight="25980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -585,7 +585,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="allmidata_alphia"/>
@@ -7484,8 +7484,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F59" sqref="F59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7566,19 +7567,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <f>LEN(A2)</f>
+        <f t="shared" ref="B2:B33" si="0">LEN(A2)</f>
         <v>29</v>
       </c>
       <c r="C2" t="str">
-        <f>RIGHT(A2,B2-5)</f>
+        <f t="shared" ref="C2:C33" si="1">RIGHT(A2,B2-5)</f>
         <v>Acanthephyra acutifrons'</v>
       </c>
       <c r="D2">
-        <f>LEN(C2)</f>
+        <f t="shared" ref="D2:D33" si="2">LEN(C2)</f>
         <v>24</v>
       </c>
       <c r="E2" t="str">
-        <f>LOWER(LEFT(C2,D2-1))</f>
+        <f t="shared" ref="E2:E12" si="3">LOWER(LEFT(C2,D2-1))</f>
         <v>acanthephyra acutifrons</v>
       </c>
       <c r="F2">
@@ -7635,19 +7636,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <f>LEN(A3)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C3" t="str">
-        <f>RIGHT(A3,B3-5)</f>
+        <f t="shared" si="1"/>
         <v>Acanthephyra curtirostris'</v>
       </c>
       <c r="D3">
-        <f>LEN(C3)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="E3" t="str">
-        <f>LOWER(LEFT(C3,D3-1))</f>
+        <f t="shared" si="3"/>
         <v>acanthephyra curtirostris</v>
       </c>
       <c r="F3" s="1">
@@ -7704,19 +7705,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f>LEN(A4)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C4" t="str">
-        <f>RIGHT(A4,B4-5)</f>
+        <f t="shared" si="1"/>
         <v>Acanthephyra purpurea'</v>
       </c>
       <c r="D4">
-        <f>LEN(C4)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E4" t="str">
-        <f>LOWER(LEFT(C4,D4-1))</f>
+        <f t="shared" si="3"/>
         <v>acanthephyra purpurea</v>
       </c>
       <c r="F4">
@@ -7774,19 +7775,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <f>LEN(A5)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C5" t="str">
-        <f>RIGHT(A5,B5-5)</f>
+        <f t="shared" si="1"/>
         <v>Alitta succinea'</v>
       </c>
       <c r="D5">
-        <f>LEN(C5)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="E5" t="str">
-        <f>LOWER(LEFT(C5,D5-1))</f>
+        <f t="shared" si="3"/>
         <v>alitta succinea</v>
       </c>
       <c r="F5">
@@ -7844,19 +7845,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <f>LEN(A6)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C6" t="str">
-        <f>RIGHT(A6,B6-5)</f>
+        <f t="shared" si="1"/>
         <v>Anguilla japonica'</v>
       </c>
       <c r="D6">
-        <f>LEN(C6)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E6" t="str">
-        <f>LOWER(LEFT(C6,D6-1))</f>
+        <f t="shared" si="3"/>
         <v>anguilla japonica</v>
       </c>
       <c r="F6">
@@ -7914,19 +7915,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <f>LEN(A7)</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C7" t="str">
-        <f>RIGHT(A7,B7-5)</f>
+        <f t="shared" si="1"/>
         <v>Bellapiscis lesleyae'</v>
       </c>
       <c r="D7">
-        <f>LEN(C7)</f>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="E7" t="str">
-        <f>LOWER(LEFT(C7,D7-1))</f>
+        <f t="shared" si="3"/>
         <v>bellapiscis lesleyae</v>
       </c>
       <c r="F7">
@@ -7984,19 +7985,19 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <f>LEN(A8)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C8" t="str">
-        <f>RIGHT(A8,B8-5)</f>
+        <f t="shared" si="1"/>
         <v>Bellapiscis medius'</v>
       </c>
       <c r="D8">
-        <f>LEN(C8)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="E8" t="str">
-        <f>LOWER(LEFT(C8,D8-1))</f>
+        <f t="shared" si="3"/>
         <v>bellapiscis medius</v>
       </c>
       <c r="F8">
@@ -8054,19 +8055,19 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <f>LEN(A9)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C9" t="str">
-        <f>RIGHT(A9,B9-5)</f>
+        <f t="shared" si="1"/>
         <v>Cyclopterus lumpus'</v>
       </c>
       <c r="D9">
-        <f>LEN(C9)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="E9" t="str">
-        <f>LOWER(LEFT(C9,D9-1))</f>
+        <f t="shared" si="3"/>
         <v>cyclopterus lumpus</v>
       </c>
       <c r="F9">
@@ -8124,19 +8125,19 @@
         <v>20</v>
       </c>
       <c r="B10">
-        <f>LEN(A10)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C10" t="str">
-        <f>RIGHT(A10,B10-5)</f>
+        <f t="shared" si="1"/>
         <v>Doryteuthis pealeii'</v>
       </c>
       <c r="D10">
-        <f>LEN(C10)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E10" t="str">
-        <f>LOWER(LEFT(C10,D10-1))</f>
+        <f t="shared" si="3"/>
         <v>doryteuthis pealeii</v>
       </c>
       <c r="F10">
@@ -8194,19 +8195,19 @@
         <v>21</v>
       </c>
       <c r="B11">
-        <f>LEN(A11)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C11" t="str">
-        <f>RIGHT(A11,B11-5)</f>
+        <f t="shared" si="1"/>
         <v>Dosidicus gigas'</v>
       </c>
       <c r="D11">
-        <f>LEN(C11)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="E11" t="str">
-        <f>LOWER(LEFT(C11,D11-1))</f>
+        <f t="shared" si="3"/>
         <v>dosidicus gigas</v>
       </c>
       <c r="F11">
@@ -8264,19 +8265,19 @@
         <v>22</v>
       </c>
       <c r="B12">
-        <f>LEN(A12)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C12" t="str">
-        <f>RIGHT(A12,B12-5)</f>
+        <f t="shared" si="1"/>
         <v>Funchalia villosa'</v>
       </c>
       <c r="D12">
-        <f>LEN(C12)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E12" t="str">
-        <f>LOWER(LEFT(C12,D12-1))</f>
+        <f t="shared" si="3"/>
         <v>funchalia villosa</v>
       </c>
       <c r="F12">
@@ -8334,15 +8335,15 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <f>LEN(A13)</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>RIGHT(A13,B13-5)</f>
+        <f t="shared" si="1"/>
         <v>Gadus ogac'</v>
       </c>
       <c r="D13" s="2">
-        <f>LEN(C13)</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -8403,15 +8404,15 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <f>LEN(A14)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C14" t="str">
-        <f>RIGHT(A14,B14-5)</f>
+        <f t="shared" si="1"/>
         <v>Gennadas valens'</v>
       </c>
       <c r="D14">
-        <f>LEN(C14)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="E14" t="str">
@@ -8473,15 +8474,15 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <f>LEN(A15)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C15" t="str">
-        <f>RIGHT(A15,B15-5)</f>
+        <f t="shared" si="1"/>
         <v>Gibberulus gibbosus'</v>
       </c>
       <c r="D15">
-        <f>LEN(C15)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E15" t="str">
@@ -8543,15 +8544,15 @@
         <v>32</v>
       </c>
       <c r="B16">
-        <f>LEN(A16)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>RIGHT(A16,B16-5)</f>
+        <f t="shared" si="1"/>
         <v>Lophelia pertusa'</v>
       </c>
       <c r="D16" s="2">
-        <f>LEN(C16)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -8612,15 +8613,15 @@
         <v>35</v>
       </c>
       <c r="B17">
-        <f>LEN(A17)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C17" t="str">
-        <f>RIGHT(A17,B17-5)</f>
+        <f t="shared" si="1"/>
         <v>Morone saxatilis'</v>
       </c>
       <c r="D17">
-        <f>LEN(C17)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="E17" t="str">
@@ -8682,15 +8683,15 @@
         <v>38</v>
       </c>
       <c r="B18">
-        <f>LEN(A18)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C18" t="str">
-        <f>RIGHT(A18,B18-5)</f>
+        <f t="shared" si="1"/>
         <v>Notostomus elegans'</v>
       </c>
       <c r="D18">
-        <f>LEN(C18)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="E18" t="str">
@@ -8752,15 +8753,15 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <f>LEN(A19)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C19" t="str">
-        <f>RIGHT(A19,B19-5)</f>
+        <f t="shared" si="1"/>
         <v>Notostomus gibbosus'</v>
       </c>
       <c r="D19">
-        <f>LEN(C19)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E19" t="str">
@@ -8822,15 +8823,15 @@
         <v>44</v>
       </c>
       <c r="B20">
-        <f>LEN(A20)</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C20" t="str">
-        <f>RIGHT(A20,B20-5)</f>
+        <f t="shared" si="1"/>
         <v>Palaemonetes pugio'</v>
       </c>
       <c r="D20">
-        <f>LEN(C20)</f>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="E20" t="s">
@@ -8891,19 +8892,19 @@
         <v>47</v>
       </c>
       <c r="B21">
-        <f>LEN(A21)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C21" t="str">
-        <f>RIGHT(A21,B21-5)</f>
+        <f t="shared" si="1"/>
         <v>Pandalus platyceros'</v>
       </c>
       <c r="D21">
-        <f>LEN(C21)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E21" t="str">
-        <f>LOWER(LEFT(C21,D21-1))</f>
+        <f t="shared" ref="E21:E27" si="4">LOWER(LEFT(C21,D21-1))</f>
         <v>pandalus platyceros</v>
       </c>
       <c r="F21">
@@ -8961,19 +8962,19 @@
         <v>49</v>
       </c>
       <c r="B22">
-        <f>LEN(A22)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C22" t="str">
-        <f>RIGHT(A22,B22-5)</f>
+        <f t="shared" si="1"/>
         <v>Panulirus interruptus'</v>
       </c>
       <c r="D22">
-        <f>LEN(C22)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E22" t="str">
-        <f>LOWER(LEFT(C22,D22-1))</f>
+        <f t="shared" si="4"/>
         <v>panulirus interruptus</v>
       </c>
       <c r="F22">
@@ -9031,19 +9032,19 @@
         <v>51</v>
       </c>
       <c r="B23">
-        <f>LEN(A23)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C23" t="str">
-        <f>RIGHT(A23,B23-5)</f>
+        <f t="shared" si="1"/>
         <v>Paralichthys dentatus'</v>
       </c>
       <c r="D23">
-        <f>LEN(C23)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E23" t="str">
-        <f>LOWER(LEFT(C23,D23-1))</f>
+        <f t="shared" si="4"/>
         <v>paralichthys dentatus</v>
       </c>
       <c r="F23">
@@ -9101,19 +9102,19 @@
         <v>53</v>
       </c>
       <c r="B24">
-        <f>LEN(A24)</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="C24" t="str">
-        <f>RIGHT(A24,B24-5)</f>
+        <f t="shared" si="1"/>
         <v>Penaeus aztecus'</v>
       </c>
       <c r="D24">
-        <f>LEN(C24)</f>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="E24" t="str">
-        <f>LOWER(LEFT(C24,D24-1))</f>
+        <f t="shared" si="4"/>
         <v>penaeus aztecus</v>
       </c>
       <c r="F24">
@@ -9171,19 +9172,19 @@
         <v>58</v>
       </c>
       <c r="B25">
-        <f>LEN(A25)</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C25" t="str">
-        <f>RIGHT(A25,B25-5)</f>
+        <f t="shared" si="1"/>
         <v>Salpa fusiformis'</v>
       </c>
       <c r="D25">
-        <f>LEN(C25)</f>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="E25" t="str">
-        <f>LOWER(LEFT(C25,D25-1))</f>
+        <f t="shared" si="4"/>
         <v>salpa fusiformis</v>
       </c>
       <c r="F25">
@@ -9241,19 +9242,19 @@
         <v>59</v>
       </c>
       <c r="B26">
-        <f>LEN(A26)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C26" t="str">
-        <f>RIGHT(A26,B26-5)</f>
+        <f t="shared" si="1"/>
         <v>Sciaenops ocellatus'</v>
       </c>
       <c r="D26">
-        <f>LEN(C26)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E26" t="str">
-        <f>LOWER(LEFT(C26,D26-1))</f>
+        <f t="shared" si="4"/>
         <v>sciaenops ocellatus</v>
       </c>
       <c r="F26">
@@ -9311,19 +9312,19 @@
         <v>61</v>
       </c>
       <c r="B27">
-        <f>LEN(A27)</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C27" t="str">
-        <f>RIGHT(A27,B27-5)</f>
+        <f t="shared" si="1"/>
         <v>Sepia officinalis'</v>
       </c>
       <c r="D27">
-        <f>LEN(C27)</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="E27" t="str">
-        <f>LOWER(LEFT(C27,D27-1))</f>
+        <f t="shared" si="4"/>
         <v>sepia officinalis</v>
       </c>
       <c r="F27">
@@ -9381,15 +9382,15 @@
         <v>63</v>
       </c>
       <c r="B28">
-        <f>LEN(A28)</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="C28" t="str">
-        <f>RIGHT(A28,B28-5)</f>
+        <f t="shared" si="1"/>
         <v>Sergia grandis'</v>
       </c>
       <c r="D28">
-        <f>LEN(C28)</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="E28" t="s">
@@ -9450,19 +9451,19 @@
         <v>65</v>
       </c>
       <c r="B29">
-        <f>LEN(A29)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C29" t="str">
-        <f>RIGHT(A29,B29-5)</f>
+        <f t="shared" si="1"/>
         <v>Stenobrachius leucopsarus'</v>
       </c>
       <c r="D29">
-        <f>LEN(C29)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="E29" t="str">
-        <f>LOWER(LEFT(C29,D29-1))</f>
+        <f t="shared" ref="E29:E37" si="5">LOWER(LEFT(C29,D29-1))</f>
         <v>stenobrachius leucopsarus</v>
       </c>
       <c r="F29">
@@ -9520,19 +9521,19 @@
         <v>68</v>
       </c>
       <c r="B30">
-        <f>LEN(A30)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C30" t="str">
-        <f>RIGHT(A30,B30-5)</f>
+        <f t="shared" si="1"/>
         <v>Tarletonbeania crenularis'</v>
       </c>
       <c r="D30">
-        <f>LEN(C30)</f>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="E30" t="str">
-        <f>LOWER(LEFT(C30,D30-1))</f>
+        <f t="shared" si="5"/>
         <v>tarletonbeania crenularis</v>
       </c>
       <c r="F30">
@@ -9590,19 +9591,19 @@
         <v>69</v>
       </c>
       <c r="B31">
-        <f>LEN(A31)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="C31" t="str">
-        <f>RIGHT(A31,B31-5)</f>
+        <f t="shared" si="1"/>
         <v>Tautogolabrus adspersus'</v>
       </c>
       <c r="D31">
-        <f>LEN(C31)</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="E31" t="str">
-        <f>LOWER(LEFT(C31,D31-1))</f>
+        <f t="shared" si="5"/>
         <v>tautogolabrus adspersus</v>
       </c>
       <c r="F31">
@@ -9660,19 +9661,19 @@
         <v>70</v>
       </c>
       <c r="B32">
-        <f>LEN(A32)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C32" t="str">
-        <f>RIGHT(A32,B32-5)</f>
+        <f t="shared" si="1"/>
         <v>Tigriopus brevicornis'</v>
       </c>
       <c r="D32">
-        <f>LEN(C32)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="E32" t="str">
-        <f>LOWER(LEFT(C32,D32-1))</f>
+        <f t="shared" si="5"/>
         <v>tigriopus brevicornis</v>
       </c>
       <c r="F32">
@@ -9730,19 +9731,19 @@
         <v>3</v>
       </c>
       <c r="B33">
-        <f>LEN(A33)</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C33" t="str">
-        <f>RIGHT(A33,B33-5)</f>
+        <f t="shared" si="1"/>
         <v>Acanthephyra smithi'</v>
       </c>
       <c r="D33">
-        <f>LEN(C33)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="E33" t="str">
-        <f>LOWER(LEFT(C33,D33-1))</f>
+        <f t="shared" si="5"/>
         <v>acanthephyra smithi</v>
       </c>
       <c r="F33">
@@ -9800,19 +9801,19 @@
         <v>9</v>
       </c>
       <c r="B34">
-        <f>LEN(A34)</f>
+        <f t="shared" ref="B34:B65" si="6">LEN(A34)</f>
         <v>27</v>
       </c>
       <c r="C34" t="str">
-        <f>RIGHT(A34,B34-5)</f>
+        <f t="shared" ref="C34:C65" si="7">RIGHT(A34,B34-5)</f>
         <v>Bythograea thermydron'</v>
       </c>
       <c r="D34">
-        <f>LEN(C34)</f>
+        <f t="shared" ref="D34:D65" si="8">LEN(C34)</f>
         <v>22</v>
       </c>
       <c r="E34" t="str">
-        <f>LOWER(LEFT(C34,D34-1))</f>
+        <f t="shared" si="5"/>
         <v>bythograea thermydron</v>
       </c>
       <c r="F34">
@@ -9870,19 +9871,19 @@
         <v>10</v>
       </c>
       <c r="B35">
-        <f>LEN(A35)</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="C35" t="str">
-        <f>RIGHT(A35,B35-5)</f>
+        <f t="shared" si="7"/>
         <v>Callinectes sapidus'</v>
       </c>
       <c r="D35">
-        <f>LEN(C35)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="E35" t="str">
-        <f>LOWER(LEFT(C35,D35-1))</f>
+        <f t="shared" si="5"/>
         <v>callinectes sapidus</v>
       </c>
       <c r="F35">
@@ -9940,19 +9941,19 @@
         <v>12</v>
       </c>
       <c r="B36">
-        <f>LEN(A36)</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="C36" t="str">
-        <f>RIGHT(A36,B36-5)</f>
+        <f t="shared" si="7"/>
         <v>Carassius carassius'</v>
       </c>
       <c r="D36">
-        <f>LEN(C36)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="E36" t="str">
-        <f>LOWER(LEFT(C36,D36-1))</f>
+        <f t="shared" si="5"/>
         <v>carassius carassius</v>
       </c>
       <c r="F36">
@@ -10010,19 +10011,19 @@
         <v>13</v>
       </c>
       <c r="B37">
-        <f>LEN(A37)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="C37" t="str">
-        <f>RIGHT(A37,B37-5)</f>
+        <f t="shared" si="7"/>
         <v>Carcinus maenas'</v>
       </c>
       <c r="D37">
-        <f>LEN(C37)</f>
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
       <c r="E37" t="str">
-        <f>LOWER(LEFT(C37,D37-1))</f>
+        <f t="shared" si="5"/>
         <v>carcinus maenas</v>
       </c>
       <c r="F37">
@@ -10080,15 +10081,15 @@
         <v>16</v>
       </c>
       <c r="B38">
-        <f>LEN(A38)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="C38" t="str">
-        <f>RIGHT(A38,B38-5)</f>
+        <f t="shared" si="7"/>
         <v>Crassostrea gigas'</v>
       </c>
       <c r="D38">
-        <f>LEN(C38)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="E38" t="s">
@@ -10149,19 +10150,19 @@
         <v>24</v>
       </c>
       <c r="B39">
-        <f>LEN(A39)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C39" t="str">
-        <f>RIGHT(A39,B39-5)</f>
+        <f t="shared" si="7"/>
         <v>Gadus morhua'</v>
       </c>
       <c r="D39">
-        <f>LEN(C39)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="E39" t="str">
-        <f>LOWER(LEFT(C39,D39-1))</f>
+        <f t="shared" ref="E39:E44" si="9">LOWER(LEFT(C39,D39-1))</f>
         <v>gadus morhua</v>
       </c>
       <c r="F39">
@@ -10219,19 +10220,19 @@
         <v>27</v>
       </c>
       <c r="B40">
-        <f>LEN(A40)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C40" t="str">
-        <f>RIGHT(A40,B40-5)</f>
+        <f t="shared" si="7"/>
         <v>Gaussia princeps'</v>
       </c>
       <c r="D40">
-        <f>LEN(C40)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="E40" t="str">
-        <f>LOWER(LEFT(C40,D40-1))</f>
+        <f t="shared" si="9"/>
         <v>gaussia princeps</v>
       </c>
       <c r="F40">
@@ -10289,19 +10290,19 @@
         <v>36</v>
       </c>
       <c r="B41">
-        <f>LEN(A41)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C41" t="str">
-        <f>RIGHT(A41,B41-5)</f>
+        <f t="shared" si="7"/>
         <v>Mytilus sp.'</v>
       </c>
       <c r="D41">
-        <f>LEN(C41)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="E41" t="str">
-        <f>LOWER(LEFT(C41,D41-1))</f>
+        <f t="shared" si="9"/>
         <v>mytilus sp.</v>
       </c>
       <c r="F41">
@@ -10359,19 +10360,19 @@
         <v>37</v>
       </c>
       <c r="B42">
-        <f>LEN(A42)</f>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="C42" t="str">
-        <f>RIGHT(A42,B42-5)</f>
+        <f t="shared" si="7"/>
         <v>Nautilus pompilius'</v>
       </c>
       <c r="D42">
-        <f>LEN(C42)</f>
+        <f t="shared" si="8"/>
         <v>19</v>
       </c>
       <c r="E42" t="str">
-        <f>LOWER(LEFT(C42,D42-1))</f>
+        <f t="shared" si="9"/>
         <v>nautilus pompilius</v>
       </c>
       <c r="F42">
@@ -10429,19 +10430,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f>LEN(A43)</f>
+        <f t="shared" si="6"/>
         <v>31</v>
       </c>
       <c r="C43" t="str">
-        <f>RIGHT(A43,B43-5)</f>
+        <f t="shared" si="7"/>
         <v>Oplophorus gracilirostris'</v>
       </c>
       <c r="D43">
-        <f>LEN(C43)</f>
+        <f t="shared" si="8"/>
         <v>26</v>
       </c>
       <c r="E43" t="str">
-        <f>LOWER(LEFT(C43,D43-1))</f>
+        <f t="shared" si="9"/>
         <v>oplophorus gracilirostris</v>
       </c>
       <c r="F43">
@@ -10499,19 +10500,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f>LEN(A44)</f>
+        <f t="shared" si="6"/>
         <v>25</v>
       </c>
       <c r="C44" t="str">
-        <f>RIGHT(A44,B44-5)</f>
+        <f t="shared" si="7"/>
         <v>Oplophorus spinosus'</v>
       </c>
       <c r="D44">
-        <f>LEN(C44)</f>
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="E44" t="str">
-        <f>LOWER(LEFT(C44,D44-1))</f>
+        <f t="shared" si="9"/>
         <v>oplophorus spinosus</v>
       </c>
       <c r="F44">
@@ -10569,15 +10570,15 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <f>LEN(A45)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="C45" t="str">
-        <f>RIGHT(A45,B45-5)</f>
+        <f t="shared" si="7"/>
         <v>Palaemonetes vulgaris'</v>
       </c>
       <c r="D45">
-        <f>LEN(C45)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E45" t="s">
@@ -10638,15 +10639,15 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <f>LEN(A46)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C46" t="str">
-        <f>RIGHT(A46,B46-5)</f>
+        <f t="shared" si="7"/>
         <v>Panulirus cygnus'</v>
       </c>
       <c r="D46">
-        <f>LEN(C46)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="E46" t="str">
@@ -10708,15 +10709,15 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <f>LEN(A47)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="C47" t="str">
-        <f>RIGHT(A47,B47-5)</f>
+        <f t="shared" si="7"/>
         <v>Parabramis pekinensis'</v>
       </c>
       <c r="D47">
-        <f>LEN(C47)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E47" t="str">
@@ -10778,15 +10779,15 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <f>LEN(A48)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C48" t="str">
-        <f>RIGHT(A48,B48-5)</f>
+        <f t="shared" si="7"/>
         <v>Pecten maximus'</v>
       </c>
       <c r="D48">
-        <f>LEN(C48)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="E48" t="str">
@@ -10848,15 +10849,15 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <f>LEN(A49)</f>
+        <f t="shared" si="6"/>
         <v>29</v>
       </c>
       <c r="C49" t="str">
-        <f>RIGHT(A49,B49-5)</f>
+        <f t="shared" si="7"/>
         <v>Phorgulsergia bisulcata'</v>
       </c>
       <c r="D49">
-        <f>LEN(C49)</f>
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
       <c r="E49" t="s">
@@ -10917,15 +10918,15 @@
         <v>60</v>
       </c>
       <c r="B50">
-        <f>LEN(A50)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="C50" t="str">
-        <f>RIGHT(A50,B50-5)</f>
+        <f t="shared" si="7"/>
         <v>Scyliorhinus canicula'</v>
       </c>
       <c r="D50">
-        <f>LEN(C50)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E50" t="str">
@@ -10987,15 +10988,15 @@
         <v>62</v>
       </c>
       <c r="B51">
-        <f>LEN(A51)</f>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="C51" t="str">
-        <f>RIGHT(A51,B51-5)</f>
+        <f t="shared" si="7"/>
         <v>Sergia fulgens'</v>
       </c>
       <c r="D51">
-        <f>LEN(C51)</f>
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="E51" t="s">
@@ -11056,19 +11057,19 @@
         <v>64</v>
       </c>
       <c r="B52">
-        <f>LEN(A52)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="C52" t="str">
-        <f>RIGHT(A52,B52-5)</f>
+        <f t="shared" si="7"/>
         <v>Sergia tenuiremis'</v>
       </c>
       <c r="D52">
-        <f>LEN(C52)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="E52" t="str">
-        <f>LOWER(LEFT(C52,D52-1))</f>
+        <f t="shared" ref="E52:E73" si="10">LOWER(LEFT(C52,D52-1))</f>
         <v>sergia tenuiremis</v>
       </c>
       <c r="F52">
@@ -11126,19 +11127,19 @@
         <v>30</v>
       </c>
       <c r="B53">
-        <f>LEN(A53)</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="C53" t="str">
-        <f>RIGHT(A53,B53-5)</f>
+        <f t="shared" si="7"/>
         <v>Gobiodon erythrospilus'</v>
       </c>
       <c r="D53">
-        <f>LEN(C53)</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="E53" t="str">
-        <f>LOWER(LEFT(C53,D53-1))</f>
+        <f t="shared" si="10"/>
         <v>gobiodon erythrospilus</v>
       </c>
       <c r="F53">
@@ -11196,19 +11197,19 @@
         <v>31</v>
       </c>
       <c r="B54">
-        <f>LEN(A54)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C54" t="str">
-        <f>RIGHT(A54,B54-5)</f>
+        <f t="shared" si="7"/>
         <v>Gobiodon histrio'</v>
       </c>
       <c r="D54">
-        <f>LEN(C54)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="E54" t="str">
-        <f>LOWER(LEFT(C54,D54-1))</f>
+        <f t="shared" si="10"/>
         <v>gobiodon histrio</v>
       </c>
       <c r="F54">
@@ -11266,19 +11267,19 @@
         <v>34</v>
       </c>
       <c r="B55">
-        <f>LEN(A55)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="C55" t="str">
-        <f>RIGHT(A55,B55-5)</f>
+        <f t="shared" si="7"/>
         <v>Melanostigma pammelas'</v>
       </c>
       <c r="D55">
-        <f>LEN(C55)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E55" t="str">
-        <f>LOWER(LEFT(C55,D55-1))</f>
+        <f t="shared" si="10"/>
         <v>melanostigma pammelas</v>
       </c>
       <c r="F55">
@@ -11336,19 +11337,19 @@
         <v>43</v>
       </c>
       <c r="B56">
-        <f>LEN(A56)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="C56" t="str">
-        <f>RIGHT(A56,B56-5)</f>
+        <f t="shared" si="7"/>
         <v>Oreochromis niloticus'</v>
       </c>
       <c r="D56">
-        <f>LEN(C56)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E56" t="str">
-        <f>LOWER(LEFT(C56,D56-1))</f>
+        <f t="shared" si="10"/>
         <v>oreochromis niloticus</v>
       </c>
       <c r="F56">
@@ -11406,19 +11407,19 @@
         <v>46</v>
       </c>
       <c r="B57">
-        <f>LEN(A57)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="C57" t="str">
-        <f>RIGHT(A57,B57-5)</f>
+        <f t="shared" si="7"/>
         <v>Pandalus borealis'</v>
       </c>
       <c r="D57">
-        <f>LEN(C57)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="E57" t="str">
-        <f>LOWER(LEFT(C57,D57-1))</f>
+        <f t="shared" si="10"/>
         <v>pandalus borealis</v>
       </c>
       <c r="F57">
@@ -11476,19 +11477,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <f>LEN(A58)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="C58" t="str">
-        <f>RIGHT(A58,B58-5)</f>
+        <f t="shared" si="7"/>
         <v>Pleuroncodes planipes'</v>
       </c>
       <c r="D58">
-        <f>LEN(C58)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E58" t="str">
-        <f>LOWER(LEFT(C58,D58-1))</f>
+        <f t="shared" si="10"/>
         <v>pleuroncodes planipes</v>
       </c>
       <c r="F58">
@@ -11546,19 +11547,19 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <f>LEN(A59)</f>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f>RIGHT(A59,B59-5)</f>
+        <f t="shared" si="7"/>
         <v>Salmo salar'</v>
       </c>
       <c r="D59" s="2">
-        <f>LEN(C59)</f>
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f>LOWER(LEFT(C59,D59-1))</f>
+        <f t="shared" si="10"/>
         <v>salmo salar</v>
       </c>
       <c r="F59" s="1">
@@ -11615,19 +11616,19 @@
         <v>14</v>
       </c>
       <c r="B60">
-        <f>LEN(A60)</f>
+        <f t="shared" si="6"/>
         <v>27</v>
       </c>
       <c r="C60" t="str">
-        <f>RIGHT(A60,B60-5)</f>
+        <f t="shared" si="7"/>
         <v>Centropristis striata'</v>
       </c>
       <c r="D60">
-        <f>LEN(C60)</f>
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E60" t="str">
-        <f>LOWER(LEFT(C60,D60-1))</f>
+        <f t="shared" si="10"/>
         <v>centropristis striata</v>
       </c>
       <c r="F60">
@@ -11685,19 +11686,19 @@
         <v>71</v>
       </c>
       <c r="B61">
-        <f>LEN(A61)</f>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="C61" t="str">
-        <f>RIGHT(A61,B61-5)</f>
+        <f t="shared" si="7"/>
         <v>Zoarces viviparus'</v>
       </c>
       <c r="D61">
-        <f>LEN(C61)</f>
+        <f t="shared" si="8"/>
         <v>18</v>
       </c>
       <c r="E61" t="str">
-        <f>LOWER(LEFT(C61,D61-1))</f>
+        <f t="shared" si="10"/>
         <v>zoarces viviparus</v>
       </c>
       <c r="F61">
@@ -11755,19 +11756,19 @@
         <v>4</v>
       </c>
       <c r="B62">
-        <f>LEN(A62)</f>
+        <f t="shared" si="6"/>
         <v>28</v>
       </c>
       <c r="C62" t="str">
-        <f>RIGHT(A62,B62-5)</f>
+        <f t="shared" si="7"/>
         <v>Acipenser brevirostrum'</v>
       </c>
       <c r="D62">
-        <f>LEN(C62)</f>
+        <f t="shared" si="8"/>
         <v>23</v>
       </c>
       <c r="E62" t="str">
-        <f>LOWER(LEFT(C62,D62-1))</f>
+        <f t="shared" si="10"/>
         <v>acipenser brevirostrum</v>
       </c>
       <c r="F62">
@@ -11825,19 +11826,19 @@
         <v>23</v>
       </c>
       <c r="B63">
-        <f>LEN(A63)</f>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="C63" t="str">
-        <f>RIGHT(A63,B63-5)</f>
+        <f t="shared" si="7"/>
         <v>Gadus Morhua'</v>
       </c>
       <c r="D63">
-        <f>LEN(C63)</f>
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="E63" t="str">
-        <f>LOWER(LEFT(C63,D63-1))</f>
+        <f t="shared" si="10"/>
         <v>gadus morhua</v>
       </c>
       <c r="F63">
@@ -11895,19 +11896,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <f>LEN(A64)</f>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="C64" t="str">
-        <f>RIGHT(A64,B64-5)</f>
+        <f t="shared" si="7"/>
         <v>Systellaspis debilis'</v>
       </c>
       <c r="D64">
-        <f>LEN(C64)</f>
+        <f t="shared" si="8"/>
         <v>21</v>
       </c>
       <c r="E64" t="str">
-        <f>LOWER(LEFT(C64,D64-1))</f>
+        <f t="shared" si="10"/>
         <v>systellaspis debilis</v>
       </c>
       <c r="F64">
@@ -11965,19 +11966,19 @@
         <v>54</v>
       </c>
       <c r="B65">
-        <f>LEN(A65)</f>
+        <f t="shared" si="6"/>
         <v>22</v>
       </c>
       <c r="C65" t="str">
-        <f>RIGHT(A65,B65-5)</f>
+        <f t="shared" si="7"/>
         <v>Penaeus vannamei'</v>
       </c>
       <c r="D65">
-        <f>LEN(C65)</f>
+        <f t="shared" si="8"/>
         <v>17</v>
       </c>
       <c r="E65" t="str">
-        <f>LOWER(LEFT(C65,D65-1))</f>
+        <f t="shared" si="10"/>
         <v>penaeus vannamei</v>
       </c>
       <c r="F65">
@@ -12035,19 +12036,19 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <f>LEN(A66)</f>
+        <f t="shared" ref="B66:B73" si="11">LEN(A66)</f>
         <v>20</v>
       </c>
       <c r="C66" t="str">
-        <f>RIGHT(A66,B66-5)</f>
+        <f t="shared" ref="C66:C73" si="12">RIGHT(A66,B66-5)</f>
         <v>Styela plicata'</v>
       </c>
       <c r="D66">
-        <f>LEN(C66)</f>
+        <f t="shared" ref="D66:D73" si="13">LEN(C66)</f>
         <v>15</v>
       </c>
       <c r="E66" t="str">
-        <f>LOWER(LEFT(C66,D66-1))</f>
+        <f t="shared" si="10"/>
         <v>styela plicata</v>
       </c>
       <c r="F66">
@@ -12105,19 +12106,19 @@
         <v>18</v>
       </c>
       <c r="B67">
-        <f>LEN(A67)</f>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="C67" t="str">
-        <f>RIGHT(A67,B67-5)</f>
+        <f t="shared" si="12"/>
         <v>Dentex dentex'</v>
       </c>
       <c r="D67">
-        <f>LEN(C67)</f>
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
       <c r="E67" t="str">
-        <f>LOWER(LEFT(C67,D67-1))</f>
+        <f t="shared" si="10"/>
         <v>dentex dentex</v>
       </c>
       <c r="F67">
@@ -12175,19 +12176,19 @@
         <v>19</v>
       </c>
       <c r="B68">
-        <f>LEN(A68)</f>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="C68" t="str">
-        <f>RIGHT(A68,B68-5)</f>
+        <f t="shared" si="12"/>
         <v>Diplodus puntazzo'</v>
       </c>
       <c r="D68">
-        <f>LEN(C68)</f>
+        <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="E68" t="str">
-        <f>LOWER(LEFT(C68,D68-1))</f>
+        <f t="shared" si="10"/>
         <v>diplodus puntazzo</v>
       </c>
       <c r="F68">
@@ -12245,19 +12246,19 @@
         <v>33</v>
       </c>
       <c r="B69">
-        <f>LEN(A69)</f>
+        <f t="shared" si="11"/>
         <v>24</v>
       </c>
       <c r="C69" t="str">
-        <f>RIGHT(A69,B69-5)</f>
+        <f t="shared" si="12"/>
         <v>Maja brachydactyla'</v>
       </c>
       <c r="D69">
-        <f>LEN(C69)</f>
+        <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="E69" t="str">
-        <f>LOWER(LEFT(C69,D69-1))</f>
+        <f t="shared" si="10"/>
         <v>maja brachydactyla</v>
       </c>
       <c r="F69">
@@ -12315,19 +12316,19 @@
         <v>40</v>
       </c>
       <c r="B70">
-        <f>LEN(A70)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="C70" t="str">
-        <f>RIGHT(A70,B70-5)</f>
+        <f t="shared" si="12"/>
         <v>Octopus vulgaris'</v>
       </c>
       <c r="D70">
-        <f>LEN(C70)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="E70" t="str">
-        <f>LOWER(LEFT(C70,D70-1))</f>
+        <f t="shared" si="10"/>
         <v>octopus vulgaris</v>
       </c>
       <c r="F70">
@@ -12385,19 +12386,19 @@
         <v>26</v>
       </c>
       <c r="B71">
-        <f>LEN(A71)</f>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="C71" t="str">
-        <f>RIGHT(A71,B71-5)</f>
+        <f t="shared" si="12"/>
         <v>Gammarus pseudolimnaeus'</v>
       </c>
       <c r="D71">
-        <f>LEN(C71)</f>
+        <f t="shared" si="13"/>
         <v>24</v>
       </c>
       <c r="E71" t="str">
-        <f>LOWER(LEFT(C71,D71-1))</f>
+        <f t="shared" si="10"/>
         <v>gammarus pseudolimnaeus</v>
       </c>
       <c r="F71">
@@ -12455,19 +12456,19 @@
         <v>15</v>
       </c>
       <c r="B72">
-        <f>LEN(A72)</f>
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
       <c r="C72" t="str">
-        <f>RIGHT(A72,B72-5)</f>
+        <f t="shared" si="12"/>
         <v>Chromis atripectoralis'</v>
       </c>
       <c r="D72">
-        <f>LEN(C72)</f>
+        <f t="shared" si="13"/>
         <v>23</v>
       </c>
       <c r="E72" t="str">
-        <f>LOWER(LEFT(C72,D72-1))</f>
+        <f t="shared" si="10"/>
         <v>chromis atripectoralis</v>
       </c>
       <c r="F72">
@@ -12525,19 +12526,19 @@
         <v>11</v>
       </c>
       <c r="B73">
-        <f>LEN(A73)</f>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="C73" t="str">
-        <f>RIGHT(A73,B73-5)</f>
+        <f t="shared" si="12"/>
         <v>Cancer irroratus'</v>
       </c>
       <c r="D73">
-        <f>LEN(C73)</f>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="E73" t="str">
-        <f>LOWER(LEFT(C73,D73-1))</f>
+        <f t="shared" si="10"/>
         <v>cancer irroratus</v>
       </c>
       <c r="F73">

--- a/data/MI_traits_Est_by_Curtis.xlsx
+++ b/data/MI_traits_Est_by_Curtis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/essing/Library/CloudStorage/Dropbox/Desktop/Rcode/Metabolic_Index/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931FBD0D-99AC-D045-BE0C-881DBBBEFE89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29300BD-780B-DE45-92C1-0BF0C8912B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="22620" windowHeight="25980" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="214">
   <si>
     <t xml:space="preserve">    'Acanthephyra acutifrons'</t>
   </si>
@@ -337,9 +337,6 @@
     <t xml:space="preserve">    'Lefevre et al., 2015'</t>
   </si>
   <si>
-    <t xml:space="preserve">    'Sorsen 2014'</t>
-  </si>
-  <si>
     <t xml:space="preserve">    'Dodds et al., 2007'</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t xml:space="preserve">    'Boutilier ea '96 Nature 380: 534-536'</t>
   </si>
   <si>
-    <t xml:space="preserve">    'Cowles et al., 1991'</t>
-  </si>
-  <si>
     <t xml:space="preserve">    'Parra ea '00 JMBAssUK 80: 557-558'</t>
   </si>
   <si>
@@ -409,9 +403,6 @@
     <t xml:space="preserve">    'Zielinski et al., 2001'</t>
   </si>
   <si>
-    <t xml:space="preserve">    'Donnelly and Torres 1988'</t>
-  </si>
-  <si>
     <t xml:space="preserve">    'Torres et al., 1979'</t>
   </si>
   <si>
@@ -424,9 +415,6 @@
     <t xml:space="preserve">    'Corkum and Gamperl, 2009'</t>
   </si>
   <si>
-    <t xml:space="preserve">    'Pcrit: McAllen et al., 1999; Mass: McAllen and Taylor 2001'</t>
-  </si>
-  <si>
     <t xml:space="preserve">    'Portner and Knust, 2008'</t>
   </si>
   <si>
@@ -515,6 +503,183 @@
   </si>
   <si>
     <t>challengerosergia fulgens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Quetin and Childress '76  MarBio 36: 327 - 324'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'McAllen et al., 1999`</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    'Sorensen etal 2014'</t>
+  </si>
+  <si>
+    <t>Cowles et al 1991 MarBiol 110:75:83</t>
+  </si>
+  <si>
+    <t>Crear and Fortteach 2001</t>
+  </si>
+  <si>
+    <t>Davenport &amp; Truman 1985 CompBiolPhys 81:851-863</t>
+  </si>
+  <si>
+    <t>Dodds et al 2007</t>
+  </si>
+  <si>
+    <t>Donnely &amp; Torres 1988 MarBiol 97:483-494</t>
+  </si>
+  <si>
+    <t>Ern et al. 2016</t>
+  </si>
+  <si>
+    <t>Farmer &amp; Beamish 1969</t>
+  </si>
+  <si>
+    <t>Fisher 1976 BiolBull 151: 297 - 305</t>
+  </si>
+  <si>
+    <t>Gardiner et al 20210</t>
+  </si>
+  <si>
+    <t>Gerdes 1983 Aquaculture 31 221-231</t>
+  </si>
+  <si>
+    <t>Hilton et al 2008</t>
+  </si>
+  <si>
+    <t>Hoback and Barnhart 1996</t>
+  </si>
+  <si>
+    <t>Killen et al. 2007</t>
+  </si>
+  <si>
+    <t>Breteler 1975 JSR 9: 243 - 254</t>
+  </si>
+  <si>
+    <t>Lefevre et al. 2015</t>
+  </si>
+  <si>
+    <t>Palacioas et al. 1996 JAquatTrip 11: 59 - 65</t>
+  </si>
+  <si>
+    <t>Mickel &amp; Childress 1982 PhysZool 55: 199 - 207</t>
+  </si>
+  <si>
+    <t>Miller et al 2002</t>
+  </si>
+  <si>
+    <t>Neumann et al 1981</t>
+  </si>
+  <si>
+    <t>Ocampo et al 2003</t>
+  </si>
+  <si>
+    <t>Parra et al 2000 JMBAssUK 80: 557 - 558</t>
+  </si>
+  <si>
+    <t>McAllen et al. 1999</t>
+  </si>
+  <si>
+    <t>Portner &amp; Knust 2008</t>
+  </si>
+  <si>
+    <t>Quitin &amp; Childress 1976 MarBiio 36: 327 - 324</t>
+  </si>
+  <si>
+    <t>Remen et al. 2013</t>
+  </si>
+  <si>
+    <t>Sanchez et al 1991 CompBioPhys 100A: 69 - 73</t>
+  </si>
+  <si>
+    <t>Schmid 1996 BPF 202 1 - 92</t>
+  </si>
+  <si>
+    <t>Schurmann &amp; Stevenson 1992</t>
+  </si>
+  <si>
+    <t>Slesinger et al, unpublished</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soofiani &amp; Priede 1985 </t>
+  </si>
+  <si>
+    <t>Sorensen et al 2014</t>
+  </si>
+  <si>
+    <t>Sturdivant et al. 2015</t>
+  </si>
+  <si>
+    <t>Torres et al 1979</t>
+  </si>
+  <si>
+    <t>Trueblood &amp; Seibel 2013</t>
+  </si>
+  <si>
+    <t>Valverde et al 2006</t>
+  </si>
+  <si>
+    <t>Vargo &amp; Sastry 1977</t>
+  </si>
+  <si>
+    <t>Winget 1969 BioBuill 136 301 - 312</t>
+  </si>
+  <si>
+    <t>Zielinksi et al 2001</t>
+  </si>
+  <si>
+    <t>Artigaud et al 2014</t>
+  </si>
+  <si>
+    <t>Batteron &amp; Cameron 1978 JExpZool 203: 403 - 418</t>
+  </si>
+  <si>
+    <t>Belman &amp; Gordon 1979</t>
+  </si>
+  <si>
+    <t>Birk unpublished</t>
+  </si>
+  <si>
+    <t>Boutilier et al 1996  Nature 380 534-536</t>
+  </si>
+  <si>
+    <t>Bushnell et al. 1994</t>
+  </si>
+  <si>
+    <t>Butler &amp; Taylor 1975</t>
+  </si>
+  <si>
+    <t>Cammen 1985 MEPS 21: 163 - 167</t>
+  </si>
+  <si>
+    <t>Campbell and Boodman, 2004</t>
+  </si>
+  <si>
+    <t>Caposella et al. 2012</t>
+  </si>
+  <si>
+    <t>Cerezo and Garcia 2004</t>
+  </si>
+  <si>
+    <t>Cerezo et al 2012</t>
+  </si>
+  <si>
+    <t>Chan &amp; Woo 1978</t>
+  </si>
+  <si>
+    <t>Cetta et al 1986 MarBiol 91: 529 - 537</t>
+  </si>
+  <si>
+    <t>Childress 1975 ComBiolPhys 50A: 787 - 199</t>
+  </si>
+  <si>
+    <t>Childress et al 1990 DSR 37: 929 - 949</t>
+  </si>
+  <si>
+    <t>Korkum &amp; Gamperl 2009</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -587,6 +752,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="allmidata_alphia"/>
     </sheetNames>
@@ -7482,11 +7650,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U73"/>
+  <dimension ref="A1:V73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J36" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="V64" sqref="V64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7495,91 +7665,95 @@
     <col min="3" max="3" width="26.83203125" customWidth="1"/>
     <col min="5" max="5" width="38.5" customWidth="1"/>
     <col min="6" max="6" width="31.83203125" customWidth="1"/>
+    <col min="21" max="21" width="71.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
         <v>130</v>
       </c>
-      <c r="D1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L1" t="s">
         <v>131</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>132</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>133</v>
       </c>
-      <c r="J1" t="s">
+      <c r="O1" t="s">
         <v>134</v>
       </c>
-      <c r="K1" t="s">
-        <v>142</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>135</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
+        <v>140</v>
+      </c>
+      <c r="R1" t="s">
+        <v>141</v>
+      </c>
+      <c r="S1" t="s">
         <v>136</v>
       </c>
-      <c r="N1" t="s">
+      <c r="T1" t="s">
+        <v>139</v>
+      </c>
+      <c r="U1" t="s">
         <v>137</v>
       </c>
-      <c r="O1" t="s">
-        <v>138</v>
-      </c>
-      <c r="P1" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>144</v>
-      </c>
-      <c r="R1" t="s">
-        <v>145</v>
-      </c>
-      <c r="S1" t="s">
-        <v>140</v>
-      </c>
-      <c r="T1" t="s">
-        <v>143</v>
-      </c>
-      <c r="U1" t="s">
-        <v>141</v>
+      <c r="V1" t="s">
+        <v>213</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B33" si="0">LEN(A2)</f>
+        <f>LEN(A2)</f>
         <v>29</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2:C33" si="1">RIGHT(A2,B2-5)</f>
+        <f>RIGHT(A2,B2-5)</f>
         <v>Acanthephyra acutifrons'</v>
       </c>
       <c r="D2">
-        <f t="shared" ref="D2:D33" si="2">LEN(C2)</f>
+        <f>LEN(C2)</f>
         <v>24</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E12" si="3">LOWER(LEFT(C2,D2-1))</f>
+        <f>LOWER(LEFT(C2,D2-1))</f>
         <v>acanthephyra acutifrons</v>
       </c>
       <c r="F2">
@@ -7630,25 +7804,28 @@
       <c r="U2" t="s">
         <v>74</v>
       </c>
+      <c r="V2" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <f t="shared" si="0"/>
+        <f>LEN(A3)</f>
         <v>31</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(A3,B3-5)</f>
         <v>Acanthephyra curtirostris'</v>
       </c>
       <c r="D3">
-        <f t="shared" si="2"/>
+        <f>LEN(C3)</f>
         <v>26</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" si="3"/>
+        <f>LOWER(LEFT(C3,D3-1))</f>
         <v>acanthephyra curtirostris</v>
       </c>
       <c r="F3" s="1">
@@ -7699,25 +7876,28 @@
       <c r="U3" t="s">
         <v>75</v>
       </c>
+      <c r="V3" t="s">
+        <v>210</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f>LEN(A4)</f>
         <v>27</v>
       </c>
       <c r="C4" t="str">
-        <f t="shared" si="1"/>
+        <f>RIGHT(A4,B4-5)</f>
         <v>Acanthephyra purpurea'</v>
       </c>
       <c r="D4">
-        <f t="shared" si="2"/>
+        <f>LEN(C4)</f>
         <v>22</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="3"/>
+        <f>LOWER(LEFT(C4,D4-1))</f>
         <v>acanthephyra purpurea</v>
       </c>
       <c r="F4">
@@ -7769,100 +7949,106 @@
       <c r="U4" t="s">
         <v>76</v>
       </c>
+      <c r="V4" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>LEN(A5)</f>
+        <v>25</v>
       </c>
       <c r="C5" t="str">
-        <f t="shared" si="1"/>
-        <v>Alitta succinea'</v>
+        <f>RIGHT(A5,B5-5)</f>
+        <v>Acanthephyra smithi'</v>
       </c>
       <c r="D5">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f>LEN(C5)</f>
+        <v>20</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="3"/>
-        <v>alitta succinea</v>
+        <f>LOWER(LEFT(C5,D5-1))</f>
+        <v>acanthephyra smithi</v>
       </c>
       <c r="F5">
         <f>VLOOKUP(E5,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>234850</v>
+        <v>210432</v>
       </c>
       <c r="G5">
-        <v>0.11269999999999999</v>
+        <v>1.0826</v>
       </c>
       <c r="H5">
-        <v>1.1778999999999999</v>
+        <v>0.31319999999999998</v>
       </c>
       <c r="I5">
-        <v>2</v>
-      </c>
-      <c r="J5" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>0.13150000000000001</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.60570000000000002</v>
       </c>
       <c r="L5">
-        <v>7.1000000000000004E-3</v>
+        <v>3.4500000000000003E-2</v>
       </c>
       <c r="M5">
-        <v>0.63029999999999997</v>
+        <v>-3.0099999999999998E-2</v>
       </c>
       <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="O5">
+        <v>0.01</v>
       </c>
       <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>72</v>
-      </c>
-      <c r="R5" t="s">
-        <v>72</v>
+        <v>0.7823</v>
+      </c>
+      <c r="Q5">
+        <v>1.6415</v>
+      </c>
+      <c r="R5">
+        <v>1.6</v>
       </c>
       <c r="S5">
-        <v>12304</v>
+        <v>17</v>
       </c>
       <c r="T5" t="s">
         <v>72</v>
       </c>
       <c r="U5" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="V5" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f>LEN(A6)</f>
+        <v>28</v>
+      </c>
+      <c r="C6" t="str">
+        <f>RIGHT(A6,B6-5)</f>
+        <v>Acipenser brevirostrum'</v>
+      </c>
+      <c r="D6">
+        <f>LEN(C6)</f>
         <v>23</v>
       </c>
-      <c r="C6" t="str">
-        <f t="shared" si="1"/>
-        <v>Anguilla japonica'</v>
-      </c>
-      <c r="D6">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
       <c r="E6" t="str">
-        <f t="shared" si="3"/>
-        <v>anguilla japonica</v>
+        <f>LOWER(LEFT(C6,D6-1))</f>
+        <v>acipenser brevirostrum</v>
       </c>
       <c r="F6">
         <f>VLOOKUP(E6,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>271705</v>
+        <v>157869</v>
       </c>
       <c r="G6" t="s">
         <v>72</v>
@@ -7880,65 +8066,68 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.12670000000000001</v>
+        <v>4.5199999999999997E-2</v>
       </c>
       <c r="M6">
-        <v>0.12659999999999999</v>
+        <v>0.36259999999999998</v>
       </c>
       <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="O6">
+        <v>1.2500000000000001E-2</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.5746</v>
       </c>
       <c r="Q6">
-        <v>1.3225</v>
-      </c>
-      <c r="R6">
-        <v>1.2290000000000001</v>
+        <v>4.5134999999999996</v>
+      </c>
+      <c r="R6" t="s">
+        <v>72</v>
       </c>
       <c r="S6">
-        <v>1164</v>
+        <v>68</v>
       </c>
       <c r="T6" t="s">
         <v>72</v>
       </c>
       <c r="U6" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="V6" t="s">
+        <v>204</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <f>LEN(A7)</f>
+        <v>21</v>
       </c>
       <c r="C7" t="str">
-        <f t="shared" si="1"/>
-        <v>Bellapiscis lesleyae'</v>
+        <f>RIGHT(A7,B7-5)</f>
+        <v>Alitta succinea'</v>
       </c>
       <c r="D7">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>LEN(C7)</f>
+        <v>16</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="3"/>
-        <v>bellapiscis lesleyae</v>
+        <f>LOWER(LEFT(C7,D7-1))</f>
+        <v>alitta succinea</v>
       </c>
       <c r="F7">
         <f>VLOOKUP(E7,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>279887</v>
+        <v>234850</v>
       </c>
       <c r="G7">
-        <v>0.72070000000000001</v>
+        <v>0.11269999999999999</v>
       </c>
       <c r="H7">
-        <v>0.71989999999999998</v>
+        <v>1.1778999999999999</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -7950,10 +8139,10 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>5.5399999999999998E-2</v>
+        <v>7.1000000000000004E-3</v>
       </c>
       <c r="M7">
-        <v>0.52639999999999998</v>
+        <v>0.63029999999999997</v>
       </c>
       <c r="N7">
         <v>2</v>
@@ -7964,66 +8153,69 @@
       <c r="P7">
         <v>1</v>
       </c>
-      <c r="Q7">
-        <v>2.4725000000000001</v>
-      </c>
-      <c r="R7">
-        <v>2.4247999999999998</v>
+      <c r="Q7" t="s">
+        <v>72</v>
+      </c>
+      <c r="R7" t="s">
+        <v>72</v>
       </c>
       <c r="S7">
-        <v>20</v>
+        <v>12304</v>
       </c>
       <c r="T7" t="s">
         <v>72</v>
       </c>
       <c r="U7" t="s">
-        <v>80</v>
+        <v>78</v>
+      </c>
+      <c r="V7" t="s">
+        <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>LEN(A8)</f>
+        <v>23</v>
       </c>
       <c r="C8" t="str">
-        <f t="shared" si="1"/>
-        <v>Bellapiscis medius'</v>
+        <f>RIGHT(A8,B8-5)</f>
+        <v>Anguilla japonica'</v>
       </c>
       <c r="D8">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f>LEN(C8)</f>
+        <v>18</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="3"/>
-        <v>bellapiscis medius</v>
+        <f>LOWER(LEFT(C8,D8-1))</f>
+        <v>anguilla japonica</v>
       </c>
       <c r="F8">
         <f>VLOOKUP(E8,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>279888</v>
-      </c>
-      <c r="G8">
-        <v>0.73870000000000002</v>
-      </c>
-      <c r="H8">
-        <v>0.98860000000000003</v>
+        <v>271705</v>
+      </c>
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>72</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J8" t="s">
         <v>72</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2.29E-2</v>
+        <v>0.12670000000000001</v>
       </c>
       <c r="M8">
-        <v>0.6421</v>
+        <v>0.12659999999999999</v>
       </c>
       <c r="N8">
         <v>2</v>
@@ -8035,50 +8227,53 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>5.4820000000000002</v>
+        <v>1.3225</v>
       </c>
       <c r="R8">
-        <v>5.1166999999999998</v>
+        <v>1.2290000000000001</v>
       </c>
       <c r="S8">
-        <v>41</v>
-      </c>
-      <c r="T8">
-        <v>8.6031999999999993</v>
+        <v>1164</v>
+      </c>
+      <c r="T8" t="s">
+        <v>72</v>
       </c>
       <c r="U8" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="V8" t="s">
+        <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>LEN(A9)</f>
+        <v>26</v>
       </c>
       <c r="C9" t="str">
-        <f t="shared" si="1"/>
-        <v>Cyclopterus lumpus'</v>
+        <f>RIGHT(A9,B9-5)</f>
+        <v>Bellapiscis lesleyae'</v>
       </c>
       <c r="D9">
-        <f t="shared" si="2"/>
-        <v>19</v>
+        <f>LEN(C9)</f>
+        <v>21</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="3"/>
-        <v>cyclopterus lumpus</v>
+        <f>LOWER(LEFT(C9,D9-1))</f>
+        <v>bellapiscis lesleyae</v>
       </c>
       <c r="F9">
         <f>VLOOKUP(E9,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>127214</v>
+        <v>279887</v>
       </c>
       <c r="G9">
-        <v>0.8679</v>
+        <v>0.72070000000000001</v>
       </c>
       <c r="H9">
-        <v>0.4128</v>
+        <v>0.71989999999999998</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -8090,10 +8285,10 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>8.1799999999999998E-2</v>
+        <v>5.5399999999999998E-2</v>
       </c>
       <c r="M9">
-        <v>0.187</v>
+        <v>0.52639999999999998</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -8105,65 +8300,68 @@
         <v>1</v>
       </c>
       <c r="Q9">
-        <v>2.4518</v>
+        <v>2.4725000000000001</v>
       </c>
       <c r="R9">
-        <v>3.1</v>
+        <v>2.4247999999999998</v>
       </c>
       <c r="S9">
-        <v>21146</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="T9" t="s">
+        <v>72</v>
       </c>
       <c r="U9" t="s">
-        <v>89</v>
+        <v>80</v>
+      </c>
+      <c r="V9" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>LEN(A10)</f>
+        <v>24</v>
       </c>
       <c r="C10" t="str">
-        <f t="shared" si="1"/>
-        <v>Doryteuthis pealeii'</v>
+        <f>RIGHT(A10,B10-5)</f>
+        <v>Bellapiscis medius'</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>LEN(C10)</f>
+        <v>19</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="3"/>
-        <v>doryteuthis pealeii</v>
+        <f>LOWER(LEFT(C10,D10-1))</f>
+        <v>bellapiscis medius</v>
       </c>
       <c r="F10">
         <f>VLOOKUP(E10,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>410354</v>
-      </c>
-      <c r="G10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
+        <v>279888</v>
+      </c>
+      <c r="G10">
+        <v>0.73870000000000002</v>
+      </c>
+      <c r="H10">
+        <v>0.98860000000000003</v>
       </c>
       <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10">
         <v>1</v>
       </c>
-      <c r="J10" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
       <c r="L10">
-        <v>4.65E-2</v>
+        <v>2.29E-2</v>
       </c>
       <c r="M10">
-        <v>0.31469999999999998</v>
+        <v>0.6421</v>
       </c>
       <c r="N10">
         <v>2</v>
@@ -8175,608 +8373,636 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>3.0063</v>
+        <v>5.4820000000000002</v>
       </c>
       <c r="R10">
-        <v>2.7233000000000001</v>
+        <v>5.1166999999999998</v>
       </c>
       <c r="S10">
-        <v>18834</v>
+        <v>41</v>
       </c>
       <c r="T10">
-        <v>5.8461999999999996</v>
+        <v>8.6031999999999993</v>
       </c>
       <c r="U10" t="s">
-        <v>92</v>
+        <v>80</v>
+      </c>
+      <c r="V10" t="s">
+        <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>LEN(A11)</f>
+        <v>27</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" si="1"/>
-        <v>Dosidicus gigas'</v>
+        <f>RIGHT(A11,B11-5)</f>
+        <v>Bythograea thermydron'</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f>LEN(C11)</f>
+        <v>22</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="3"/>
-        <v>dosidicus gigas</v>
+        <f>LOWER(LEFT(C11,D11-1))</f>
+        <v>bythograea thermydron</v>
       </c>
       <c r="F11">
         <f>VLOOKUP(E11,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>342291</v>
+        <v>440289</v>
       </c>
       <c r="G11">
-        <v>1.8525</v>
+        <v>0.70169999999999999</v>
       </c>
       <c r="H11">
-        <v>0.54159999999999997</v>
+        <v>0.56299999999999994</v>
       </c>
       <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="J11">
+        <v>2.35E-2</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="L11">
-        <v>2.4500000000000001E-2</v>
+        <v>1.9199999999999998E-2</v>
       </c>
       <c r="M11">
-        <v>0.61750000000000005</v>
+        <v>0.24410000000000001</v>
       </c>
       <c r="N11">
-        <v>2</v>
-      </c>
-      <c r="O11" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>3.7699999999999997E-2</v>
       </c>
       <c r="P11">
-        <v>1</v>
-      </c>
-      <c r="Q11">
-        <v>3.2709999999999999</v>
-      </c>
-      <c r="R11">
-        <v>3.2</v>
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" t="s">
+        <v>72</v>
       </c>
       <c r="S11">
-        <v>50</v>
-      </c>
-      <c r="T11">
-        <v>4.375</v>
+        <v>100</v>
+      </c>
+      <c r="T11" t="s">
+        <v>72</v>
       </c>
       <c r="U11" t="s">
-        <v>93</v>
+        <v>81</v>
+      </c>
+      <c r="V11" t="s">
+        <v>174</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <f>LEN(A12)</f>
+        <v>25</v>
       </c>
       <c r="C12" t="str">
-        <f t="shared" si="1"/>
-        <v>Funchalia villosa'</v>
+        <f>RIGHT(A12,B12-5)</f>
+        <v>Callinectes sapidus'</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <f>LEN(C12)</f>
+        <v>20</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="3"/>
-        <v>funchalia villosa</v>
+        <f>LOWER(LEFT(C12,D12-1))</f>
+        <v>callinectes sapidus</v>
       </c>
       <c r="F12">
         <f>VLOOKUP(E12,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>107100</v>
+        <v>107379</v>
       </c>
       <c r="G12">
-        <v>0.89239999999999997</v>
+        <v>0.40360000000000001</v>
       </c>
       <c r="H12">
-        <v>0.59970000000000001</v>
+        <v>1.0398000000000001</v>
       </c>
       <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="J12">
+        <v>0.2445</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0.96389999999999998</v>
       </c>
       <c r="L12">
-        <v>3.8699999999999998E-2</v>
+        <v>3.0200000000000001E-2</v>
       </c>
       <c r="M12">
-        <v>0.16880000000000001</v>
+        <v>0.44579999999999997</v>
       </c>
       <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>0.12189999999999999</v>
       </c>
       <c r="P12">
-        <v>1</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="Q12">
-        <v>3.4759000000000002</v>
+        <v>2.9407000000000001</v>
       </c>
       <c r="R12">
-        <v>3.5</v>
+        <v>2.8719000000000001</v>
       </c>
       <c r="S12">
-        <v>521</v>
-      </c>
-      <c r="T12" t="s">
-        <v>72</v>
+        <v>51815</v>
+      </c>
+      <c r="T12">
+        <v>4.5999999999999996</v>
       </c>
       <c r="U12" t="s">
-        <v>76</v>
+        <v>82</v>
+      </c>
+      <c r="V12" t="s">
+        <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Gadus ogac'</v>
-      </c>
-      <c r="D13" s="2">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>152</v>
+        <f>LEN(A13)</f>
+        <v>22</v>
+      </c>
+      <c r="C13" t="str">
+        <f>RIGHT(A13,B13-5)</f>
+        <v>Cancer irroratus'</v>
+      </c>
+      <c r="D13">
+        <f>LEN(C13)</f>
+        <v>17</v>
+      </c>
+      <c r="E13" t="str">
+        <f>LOWER(LEFT(C13,D13-1))</f>
+        <v>cancer irroratus</v>
       </c>
       <c r="F13">
         <f>VLOOKUP(E13,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>254538</v>
-      </c>
-      <c r="G13">
-        <v>1.1903999999999999</v>
-      </c>
-      <c r="H13">
-        <v>0.2011</v>
+        <v>158057</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
         <v>72</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.14399999999999999</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="M13">
-        <v>0.24740000000000001</v>
+        <v>0.63370000000000004</v>
       </c>
       <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13" t="s">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1</v>
+        <v>0.54890000000000005</v>
       </c>
       <c r="Q13">
-        <v>2.1097000000000001</v>
-      </c>
-      <c r="R13">
-        <v>1.8807</v>
+        <v>3.9142000000000001</v>
+      </c>
+      <c r="R13" t="s">
+        <v>72</v>
       </c>
       <c r="S13">
-        <v>23202</v>
-      </c>
-      <c r="T13">
-        <v>2.5055000000000001</v>
+        <v>1280</v>
+      </c>
+      <c r="T13" t="s">
+        <v>72</v>
       </c>
       <c r="U13" t="s">
-        <v>96</v>
+        <v>83</v>
+      </c>
+      <c r="V13" t="s">
+        <v>193</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>LEN(A14)</f>
+        <v>25</v>
       </c>
       <c r="C14" t="str">
-        <f t="shared" si="1"/>
-        <v>Gennadas valens'</v>
+        <f>RIGHT(A14,B14-5)</f>
+        <v>Carassius carassius'</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f>LEN(C14)</f>
+        <v>20</v>
       </c>
       <c r="E14" t="str">
         <f>LOWER(LEFT(C14,D14-1))</f>
-        <v>gennadas valens</v>
+        <v>carassius carassius</v>
       </c>
       <c r="F14">
         <f>VLOOKUP(E14,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>107098</v>
+        <v>154297</v>
       </c>
       <c r="G14">
-        <v>0.75990000000000002</v>
+        <v>6.2300000000000001E-2</v>
       </c>
       <c r="H14">
-        <v>0.69640000000000002</v>
+        <v>0.15720000000000001</v>
       </c>
       <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>0.13800000000000001</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0.56440000000000001</v>
       </c>
       <c r="L14">
-        <v>3.7199999999999997E-2</v>
+        <v>2.47E-2</v>
       </c>
       <c r="M14">
-        <v>0.2016</v>
+        <v>-2.8000000000000001E-2</v>
       </c>
       <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="O14">
+        <v>1.4200000000000001E-2</v>
       </c>
       <c r="P14">
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <v>3.0931000000000002</v>
-      </c>
-      <c r="R14">
-        <v>4.1985000000000001</v>
+        <v>0.73519999999999996</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" t="s">
+        <v>72</v>
       </c>
       <c r="S14">
-        <v>702</v>
-      </c>
-      <c r="T14" t="s">
-        <v>72</v>
+        <v>281</v>
+      </c>
+      <c r="T14">
+        <v>6.2747999999999999</v>
       </c>
       <c r="U14" t="s">
-        <v>76</v>
+        <v>84</v>
+      </c>
+      <c r="V14" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>LEN(A15)</f>
+        <v>21</v>
       </c>
       <c r="C15" t="str">
-        <f t="shared" si="1"/>
-        <v>Gibberulus gibbosus'</v>
+        <f>RIGHT(A15,B15-5)</f>
+        <v>Carcinus maenas'</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>LEN(C15)</f>
+        <v>16</v>
       </c>
       <c r="E15" t="str">
         <f>LOWER(LEFT(C15,D15-1))</f>
-        <v>gibberulus gibbosus</v>
+        <v>carcinus maenas</v>
       </c>
       <c r="F15">
         <f>VLOOKUP(E15,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>564630</v>
+        <v>107381</v>
       </c>
       <c r="G15">
-        <v>0.16200000000000001</v>
+        <v>-9.2899999999999996E-2</v>
       </c>
       <c r="H15">
-        <v>0.49180000000000001</v>
+        <v>0.61339999999999995</v>
       </c>
       <c r="I15">
-        <v>2</v>
-      </c>
-      <c r="J15" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>3.39E-2</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0.99350000000000005</v>
       </c>
       <c r="L15">
-        <v>5.2299999999999999E-2</v>
+        <v>4.3299999999999998E-2</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.40100000000000002</v>
       </c>
       <c r="N15">
-        <v>2</v>
-      </c>
-      <c r="O15" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>9.06E-2</v>
+      </c>
+      <c r="P15">
+        <v>0.90300000000000002</v>
       </c>
       <c r="Q15">
-        <v>3.9361999999999999</v>
+        <v>4.1471999999999998</v>
       </c>
       <c r="R15">
-        <v>4.0251000000000001</v>
+        <v>4.6147</v>
       </c>
       <c r="S15">
-        <v>121</v>
-      </c>
-      <c r="T15">
-        <v>4.6207000000000003</v>
+        <v>27462</v>
+      </c>
+      <c r="T15" t="s">
+        <v>72</v>
       </c>
       <c r="U15" t="s">
-        <v>98</v>
+        <v>85</v>
+      </c>
+      <c r="V15" t="s">
+        <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f>LEN(A16)</f>
+        <v>27</v>
+      </c>
+      <c r="C16" t="str">
+        <f>RIGHT(A16,B16-5)</f>
+        <v>Centropristis striata'</v>
+      </c>
+      <c r="D16">
+        <f>LEN(C16)</f>
         <v>22</v>
       </c>
-      <c r="C16" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>Lophelia pertusa'</v>
-      </c>
-      <c r="D16" s="2">
-        <f t="shared" si="2"/>
-        <v>17</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>153</v>
+      <c r="E16" t="str">
+        <f>LOWER(LEFT(C16,D16-1))</f>
+        <v>centropristis striata</v>
       </c>
       <c r="F16">
         <f>VLOOKUP(E16,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>1245747</v>
-      </c>
-      <c r="G16" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" t="s">
-        <v>72</v>
+        <v>159348</v>
+      </c>
+      <c r="G16">
+        <v>0.82520000000000004</v>
+      </c>
+      <c r="H16">
+        <v>0.62480000000000002</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="J16">
+        <v>1.04E-2</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="L16">
-        <v>0.1004</v>
+        <v>4.2599999999999999E-2</v>
       </c>
       <c r="M16">
-        <v>0.42259999999999998</v>
+        <v>0.23369999999999999</v>
       </c>
       <c r="N16">
-        <v>2</v>
-      </c>
-      <c r="O16" t="s">
-        <v>72</v>
+        <v>5</v>
+      </c>
+      <c r="O16">
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="P16">
-        <v>1</v>
+        <v>0.82809999999999995</v>
       </c>
       <c r="Q16">
-        <v>1.5454000000000001</v>
+        <v>3.2930000000000001</v>
       </c>
       <c r="R16">
-        <v>1.5478000000000001</v>
+        <v>3.2682000000000002</v>
       </c>
       <c r="S16">
-        <v>6366</v>
-      </c>
-      <c r="T16" t="s">
-        <v>72</v>
+        <v>11356</v>
+      </c>
+      <c r="T16">
+        <v>4.4412000000000003</v>
       </c>
       <c r="U16" t="s">
-        <v>100</v>
+        <v>86</v>
+      </c>
+      <c r="V16" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>LEN(A17)</f>
+        <v>28</v>
       </c>
       <c r="C17" t="str">
-        <f t="shared" si="1"/>
-        <v>Morone saxatilis'</v>
+        <f>RIGHT(A17,B17-5)</f>
+        <v>Chromis atripectoralis'</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f>LEN(C17)</f>
+        <v>23</v>
       </c>
       <c r="E17" t="str">
         <f>LOWER(LEFT(C17,D17-1))</f>
-        <v>morone saxatilis</v>
+        <v>chromis atripectoralis</v>
       </c>
       <c r="F17">
         <f>VLOOKUP(E17,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>151179</v>
+        <v>212812</v>
       </c>
       <c r="G17">
-        <v>0.97540000000000004</v>
+        <v>-3.1082000000000001</v>
       </c>
       <c r="H17">
-        <v>0.57869999999999999</v>
+        <v>0.99139999999999995</v>
       </c>
       <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="J17">
+        <v>2E-3</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>0.78939999999999999</v>
       </c>
       <c r="L17">
-        <v>4.19E-2</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="M17">
-        <v>0.31929999999999997</v>
+        <v>0.69620000000000004</v>
       </c>
       <c r="N17">
-        <v>2</v>
-      </c>
-      <c r="O17" t="s">
-        <v>72</v>
+        <v>32</v>
+      </c>
+      <c r="O17">
+        <v>1.54E-2</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>0.34549999999999997</v>
       </c>
       <c r="Q17">
-        <v>2.8</v>
+        <v>5.2</v>
       </c>
       <c r="R17">
-        <v>4.3587999999999996</v>
+        <v>6.2</v>
       </c>
       <c r="S17">
-        <v>3141</v>
+        <v>3489</v>
       </c>
       <c r="T17">
-        <v>4.5</v>
+        <v>7.35</v>
       </c>
       <c r="U17" t="s">
-        <v>103</v>
+        <v>87</v>
+      </c>
+      <c r="V17" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>LEN(A18)</f>
+        <v>23</v>
       </c>
       <c r="C18" t="str">
-        <f t="shared" si="1"/>
-        <v>Notostomus elegans'</v>
+        <f>RIGHT(A18,B18-5)</f>
+        <v>Crassostrea gigas'</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E18" t="str">
-        <f>LOWER(LEFT(C18,D18-1))</f>
-        <v>notostomus elegans</v>
+        <f>LEN(C18)</f>
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>152</v>
       </c>
       <c r="F18">
         <f>VLOOKUP(E18,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>107600</v>
+        <v>836033</v>
       </c>
       <c r="G18">
-        <v>1.1598999999999999</v>
+        <v>0.74909999999999999</v>
       </c>
       <c r="H18">
-        <v>1.1178999999999999</v>
+        <v>0.54430000000000001</v>
       </c>
       <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="J18" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>6.9199999999999998E-2</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>0.9728</v>
       </c>
       <c r="L18">
-        <v>4.1000000000000002E-2</v>
+        <v>7.6100000000000001E-2</v>
       </c>
       <c r="M18">
-        <v>0.43809999999999999</v>
+        <v>0.21510000000000001</v>
       </c>
       <c r="N18">
-        <v>2</v>
-      </c>
-      <c r="O18" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="O18">
+        <v>1.01E-2</v>
       </c>
       <c r="P18">
-        <v>1</v>
+        <v>0.99109999999999998</v>
       </c>
       <c r="Q18">
-        <v>2.7951000000000001</v>
+        <v>2.4537</v>
       </c>
       <c r="R18">
-        <v>2.3033999999999999</v>
+        <v>2.5228000000000002</v>
       </c>
       <c r="S18">
-        <v>110</v>
+        <v>2160</v>
       </c>
       <c r="T18" t="s">
         <v>72</v>
       </c>
       <c r="U18" t="s">
-        <v>74</v>
+        <v>88</v>
+      </c>
+      <c r="V18" t="s">
+        <v>167</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>LEN(A19)</f>
+        <v>24</v>
       </c>
       <c r="C19" t="str">
-        <f t="shared" si="1"/>
-        <v>Notostomus gibbosus'</v>
+        <f>RIGHT(A19,B19-5)</f>
+        <v>Cyclopterus lumpus'</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>LEN(C19)</f>
+        <v>19</v>
       </c>
       <c r="E19" t="str">
         <f>LOWER(LEFT(C19,D19-1))</f>
-        <v>notostomus gibbosus</v>
+        <v>cyclopterus lumpus</v>
       </c>
       <c r="F19">
         <f>VLOOKUP(E19,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>212899</v>
+        <v>127214</v>
       </c>
       <c r="G19">
-        <v>0.77270000000000005</v>
+        <v>0.8679</v>
       </c>
       <c r="H19">
-        <v>1.3287</v>
+        <v>0.4128</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -8788,10 +9014,10 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>7.0999999999999994E-2</v>
+        <v>8.1799999999999998E-2</v>
       </c>
       <c r="M19">
-        <v>0.91979999999999995</v>
+        <v>0.187</v>
       </c>
       <c r="N19">
         <v>2</v>
@@ -8803,43 +9029,47 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>2</v>
+        <v>2.4518</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>3.1</v>
       </c>
       <c r="S19">
-        <v>93</v>
-      </c>
-      <c r="T19" t="s">
-        <v>72</v>
+        <v>21146</v>
+      </c>
+      <c r="T19">
+        <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>106</v>
+        <v>89</v>
+      </c>
+      <c r="V19" t="s">
+        <v>170</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <f>LEN(A20)</f>
+        <v>19</v>
       </c>
       <c r="C20" t="str">
-        <f t="shared" si="1"/>
-        <v>Palaemonetes pugio'</v>
+        <f>RIGHT(A20,B20-5)</f>
+        <v>Dentex dentex'</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>154</v>
+        <f>LEN(C20)</f>
+        <v>14</v>
+      </c>
+      <c r="E20" t="str">
+        <f>LOWER(LEFT(C20,D20-1))</f>
+        <v>dentex dentex</v>
       </c>
       <c r="F20">
         <f>VLOOKUP(E20,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>932401</v>
+        <v>273962</v>
       </c>
       <c r="G20" t="s">
         <v>72</v>
@@ -8857,59 +9087,62 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.8999999999999999E-3</v>
+        <v>6.4699999999999994E-2</v>
       </c>
       <c r="M20">
-        <v>1.3483000000000001</v>
+        <v>0.1396</v>
       </c>
       <c r="N20">
-        <v>2</v>
-      </c>
-      <c r="O20" t="s">
-        <v>72</v>
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0.76759999999999995</v>
       </c>
       <c r="Q20">
-        <v>2.5853000000000002</v>
+        <v>2.8249</v>
       </c>
       <c r="R20">
-        <v>2.1867999999999999</v>
+        <v>2.8479999999999999</v>
       </c>
       <c r="S20">
-        <v>1041</v>
+        <v>272</v>
       </c>
       <c r="T20" t="s">
         <v>72</v>
       </c>
       <c r="U20" t="s">
-        <v>87</v>
+        <v>90</v>
+      </c>
+      <c r="V20" t="s">
+        <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>LEN(A21)</f>
+        <v>23</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" si="1"/>
-        <v>Pandalus platyceros'</v>
+        <f>RIGHT(A21,B21-5)</f>
+        <v>Diplodus puntazzo'</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>LEN(C21)</f>
+        <v>18</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" ref="E21:E27" si="4">LOWER(LEFT(C21,D21-1))</f>
-        <v>pandalus platyceros</v>
+        <f>LOWER(LEFT(C21,D21-1))</f>
+        <v>diplodus puntazzo</v>
       </c>
       <c r="F21">
         <f>VLOOKUP(E21,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>423632</v>
+        <v>127052</v>
       </c>
       <c r="G21" t="s">
         <v>72</v>
@@ -8927,59 +9160,62 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.6100000000000006E-2</v>
+        <v>5.7700000000000001E-2</v>
       </c>
       <c r="M21">
-        <v>0.15359999999999999</v>
+        <v>0.19850000000000001</v>
       </c>
       <c r="N21">
-        <v>2</v>
-      </c>
-      <c r="O21" t="s">
-        <v>72</v>
+        <v>9</v>
+      </c>
+      <c r="O21">
+        <v>1E-4</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0.3483</v>
       </c>
       <c r="Q21">
-        <v>1.5563</v>
+        <v>2.3584999999999998</v>
       </c>
       <c r="R21">
-        <v>1.2635000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="S21">
-        <v>4095</v>
+        <v>214</v>
       </c>
       <c r="T21" t="s">
         <v>72</v>
       </c>
       <c r="U21" t="s">
-        <v>111</v>
+        <v>91</v>
+      </c>
+      <c r="V21" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>LEN(A22)</f>
+        <v>25</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="1"/>
-        <v>Panulirus interruptus'</v>
+        <f>RIGHT(A22,B22-5)</f>
+        <v>Doryteuthis pealeii'</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f>LEN(C22)</f>
+        <v>20</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="4"/>
-        <v>panulirus interruptus</v>
+        <f>LOWER(LEFT(C22,D22-1))</f>
+        <v>doryteuthis pealeii</v>
       </c>
       <c r="F22">
         <f>VLOOKUP(E22,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>382898</v>
+        <v>410354</v>
       </c>
       <c r="G22" t="s">
         <v>72</v>
@@ -8988,7 +9224,7 @@
         <v>72</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="s">
         <v>72</v>
@@ -8997,10 +9233,10 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>3.4599999999999999E-2</v>
+        <v>4.65E-2</v>
       </c>
       <c r="M22">
-        <v>0.57199999999999995</v>
+        <v>0.31469999999999998</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -9012,50 +9248,53 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>3.9916</v>
+        <v>3.0063</v>
       </c>
       <c r="R22">
-        <v>3.7</v>
+        <v>2.7233000000000001</v>
       </c>
       <c r="S22">
-        <v>1140</v>
-      </c>
-      <c r="T22" t="s">
-        <v>72</v>
+        <v>18834</v>
+      </c>
+      <c r="T22">
+        <v>5.8461999999999996</v>
       </c>
       <c r="U22" t="s">
-        <v>113</v>
+        <v>92</v>
+      </c>
+      <c r="V22" t="s">
+        <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>LEN(A23)</f>
+        <v>21</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="1"/>
-        <v>Paralichthys dentatus'</v>
+        <f>RIGHT(A23,B23-5)</f>
+        <v>Dosidicus gigas'</v>
       </c>
       <c r="D23">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f>LEN(C23)</f>
+        <v>16</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="4"/>
-        <v>paralichthys dentatus</v>
+        <f>LOWER(LEFT(C23,D23-1))</f>
+        <v>dosidicus gigas</v>
       </c>
       <c r="F23">
         <f>VLOOKUP(E23,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>158826</v>
+        <v>342291</v>
       </c>
       <c r="G23">
-        <v>0.55089999999999995</v>
+        <v>1.8525</v>
       </c>
       <c r="H23">
-        <v>0.68779999999999997</v>
+        <v>0.54159999999999997</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -9067,10 +9306,10 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>3.9899999999999998E-2</v>
+        <v>2.4500000000000001E-2</v>
       </c>
       <c r="M23">
-        <v>0.35370000000000001</v>
+        <v>0.61750000000000005</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -9082,65 +9321,68 @@
         <v>1</v>
       </c>
       <c r="Q23">
-        <v>2.9714</v>
+        <v>3.2709999999999999</v>
       </c>
       <c r="R23">
-        <v>3.3530000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="S23">
-        <v>15971</v>
-      </c>
-      <c r="T23" t="s">
-        <v>72</v>
+        <v>50</v>
+      </c>
+      <c r="T23">
+        <v>4.375</v>
       </c>
       <c r="U23" t="s">
-        <v>115</v>
+        <v>93</v>
+      </c>
+      <c r="V23" t="s">
+        <v>191</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <f>LEN(A24)</f>
+        <v>23</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="1"/>
-        <v>Penaeus aztecus'</v>
+        <f>RIGHT(A24,B24-5)</f>
+        <v>Funchalia villosa'</v>
       </c>
       <c r="D24">
-        <f t="shared" si="2"/>
-        <v>16</v>
+        <f>LEN(C24)</f>
+        <v>18</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="4"/>
-        <v>penaeus aztecus</v>
+        <f>LOWER(LEFT(C24,D24-1))</f>
+        <v>funchalia villosa</v>
       </c>
       <c r="F24">
         <f>VLOOKUP(E24,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>395176</v>
-      </c>
-      <c r="G24" t="s">
-        <v>72</v>
-      </c>
-      <c r="H24" t="s">
-        <v>72</v>
+        <v>107100</v>
+      </c>
+      <c r="G24">
+        <v>0.89239999999999997</v>
+      </c>
+      <c r="H24">
+        <v>0.59970000000000001</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J24" t="s">
         <v>72</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>0.10440000000000001</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="M24">
-        <v>0.2157</v>
+        <v>0.16880000000000001</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -9152,138 +9394,144 @@
         <v>1</v>
       </c>
       <c r="Q24">
-        <v>1.3067</v>
+        <v>3.4759000000000002</v>
       </c>
       <c r="R24">
-        <v>1.2364999999999999</v>
+        <v>3.5</v>
       </c>
       <c r="S24">
-        <v>51073</v>
+        <v>521</v>
       </c>
       <c r="T24" t="s">
         <v>72</v>
       </c>
       <c r="U24" t="s">
-        <v>116</v>
+        <v>76</v>
+      </c>
+      <c r="V24" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <f>LEN(A25)</f>
+        <v>18</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="1"/>
-        <v>Salpa fusiformis'</v>
+        <f>RIGHT(A25,B25-5)</f>
+        <v>Gadus Morhua'</v>
       </c>
       <c r="D25">
-        <f t="shared" si="2"/>
-        <v>17</v>
+        <f>LEN(C25)</f>
+        <v>13</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="4"/>
-        <v>salpa fusiformis</v>
+        <f>LOWER(LEFT(C25,D25-1))</f>
+        <v>gadus morhua</v>
       </c>
       <c r="F25">
         <f>VLOOKUP(E25,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>137272</v>
-      </c>
-      <c r="G25">
-        <v>-7.2400000000000006E-2</v>
-      </c>
-      <c r="H25">
-        <v>0.87</v>
+        <v>126436</v>
+      </c>
+      <c r="G25" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" t="s">
+        <v>72</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
         <v>72</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>2.8500000000000001E-2</v>
+        <v>5.8000000000000003E-2</v>
       </c>
       <c r="M25">
-        <v>0.58740000000000003</v>
+        <v>1.1234</v>
       </c>
       <c r="N25">
-        <v>2</v>
-      </c>
-      <c r="O25" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="O25">
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="P25">
-        <v>1</v>
-      </c>
-      <c r="Q25">
-        <v>4.9497999999999998</v>
-      </c>
-      <c r="R25">
-        <v>4.2458</v>
+        <v>0.94640000000000002</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>72</v>
+      </c>
+      <c r="R25" t="s">
+        <v>72</v>
       </c>
       <c r="S25">
-        <v>1551</v>
+        <v>0</v>
       </c>
       <c r="T25" t="s">
         <v>72</v>
       </c>
       <c r="U25" t="s">
-        <v>119</v>
+        <v>94</v>
+      </c>
+      <c r="V25" t="s">
+        <v>185</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>LEN(A26)</f>
+        <v>18</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="1"/>
-        <v>Sciaenops ocellatus'</v>
+        <f>RIGHT(A26,B26-5)</f>
+        <v>Gadus morhua'</v>
       </c>
       <c r="D26">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>LEN(C26)</f>
+        <v>13</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="4"/>
-        <v>sciaenops ocellatus</v>
+        <f>LOWER(LEFT(C26,D26-1))</f>
+        <v>gadus morhua</v>
       </c>
       <c r="F26">
         <f>VLOOKUP(E26,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>159335</v>
+        <v>126436</v>
       </c>
       <c r="G26">
-        <v>0.92589999999999995</v>
+        <v>0.94820000000000004</v>
       </c>
       <c r="H26">
-        <v>0.43440000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="I26">
-        <v>2</v>
-      </c>
-      <c r="J26" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0.98970000000000002</v>
       </c>
       <c r="L26">
-        <v>4.3700000000000003E-2</v>
+        <v>6.2100000000000002E-2</v>
       </c>
       <c r="M26">
-        <v>0.18740000000000001</v>
+        <v>0.34720000000000001</v>
       </c>
       <c r="N26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O26" t="s">
         <v>72</v>
@@ -9292,65 +9540,67 @@
         <v>1</v>
       </c>
       <c r="Q26">
+        <v>2.4</v>
+      </c>
+      <c r="R26">
+        <v>2.4</v>
+      </c>
+      <c r="S26">
+        <v>1108165</v>
+      </c>
+      <c r="T26">
         <v>3.3</v>
       </c>
-      <c r="R26">
-        <v>3.2</v>
-      </c>
-      <c r="S26">
-        <v>22792</v>
-      </c>
-      <c r="T26">
-        <v>3.3391000000000002</v>
-      </c>
       <c r="U26" t="s">
-        <v>120</v>
+        <v>95</v>
+      </c>
+      <c r="V26" t="s">
+        <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="C27" t="str">
-        <f t="shared" si="1"/>
-        <v>Sepia officinalis'</v>
-      </c>
-      <c r="D27">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="4"/>
-        <v>sepia officinalis</v>
+        <f>LEN(A27)</f>
+        <v>16</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f>RIGHT(A27,B27-5)</f>
+        <v>Gadus ogac'</v>
+      </c>
+      <c r="D27" s="2">
+        <f>LEN(C27)</f>
+        <v>11</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="F27">
         <f>VLOOKUP(E27,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>141444</v>
-      </c>
-      <c r="G27" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" t="s">
-        <v>72</v>
+        <v>254538</v>
+      </c>
+      <c r="G27">
+        <v>1.1903999999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.2011</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="s">
         <v>72</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>1.4800000000000001E-2</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="M27">
-        <v>0.83499999999999996</v>
+        <v>0.24740000000000001</v>
       </c>
       <c r="N27">
         <v>2</v>
@@ -9362,204 +9612,214 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>3.9264000000000001</v>
+        <v>2.1097000000000001</v>
       </c>
       <c r="R27">
-        <v>2.6</v>
+        <v>1.8807</v>
       </c>
       <c r="S27">
-        <v>3453</v>
-      </c>
-      <c r="T27" t="s">
-        <v>72</v>
+        <v>23202</v>
+      </c>
+      <c r="T27">
+        <v>2.5055000000000001</v>
       </c>
       <c r="U27" t="s">
-        <v>122</v>
+        <v>96</v>
+      </c>
+      <c r="V27" t="s">
+        <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <f>LEN(A28)</f>
+        <v>29</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="1"/>
-        <v>Sergia grandis'</v>
+        <f>RIGHT(A28,B28-5)</f>
+        <v>Gammarus pseudolimnaeus'</v>
       </c>
       <c r="D28">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-      <c r="E28" t="s">
-        <v>155</v>
+        <f>LEN(C28)</f>
+        <v>24</v>
+      </c>
+      <c r="E28" t="str">
+        <f>LOWER(LEFT(C28,D28-1))</f>
+        <v>gammarus pseudolimnaeus</v>
       </c>
       <c r="F28">
         <f>VLOOKUP(E28,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>1056510</v>
-      </c>
-      <c r="G28">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="H28">
-        <v>0.55079999999999996</v>
+        <v>490303</v>
+      </c>
+      <c r="G28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" t="s">
+        <v>72</v>
       </c>
       <c r="I28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
         <v>72</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>4.6100000000000002E-2</v>
+        <v>4.5600000000000002E-2</v>
       </c>
       <c r="M28">
-        <v>0.42670000000000002</v>
+        <v>0.77459999999999996</v>
       </c>
       <c r="N28">
-        <v>2</v>
-      </c>
-      <c r="O28" t="s">
-        <v>72</v>
+        <v>27</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>1.9941</v>
-      </c>
-      <c r="R28">
-        <v>1.3</v>
+        <v>0.6502</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" t="s">
+        <v>72</v>
       </c>
       <c r="S28">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="T28" t="s">
         <v>72</v>
       </c>
       <c r="U28" t="s">
-        <v>123</v>
+        <v>97</v>
+      </c>
+      <c r="V28" t="s">
+        <v>169</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>LEN(A29)</f>
+        <v>22</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="1"/>
-        <v>Stenobrachius leucopsarus'</v>
+        <f>RIGHT(A29,B29-5)</f>
+        <v>Gaussia princeps'</v>
       </c>
       <c r="D29">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>LEN(C29)</f>
+        <v>17</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" ref="E29:E37" si="5">LOWER(LEFT(C29,D29-1))</f>
-        <v>stenobrachius leucopsarus</v>
+        <f>LOWER(LEFT(C29,D29-1))</f>
+        <v>gaussia princeps</v>
       </c>
       <c r="F29">
         <f>VLOOKUP(E29,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>254363</v>
+        <v>104625</v>
       </c>
       <c r="G29">
-        <v>0.85089999999999999</v>
+        <v>-0.13550000000000001</v>
       </c>
       <c r="H29">
-        <v>0.69199999999999995</v>
+        <v>0.1464</v>
       </c>
       <c r="I29">
-        <v>2</v>
-      </c>
-      <c r="J29" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>0.1062</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>0.47789999999999999</v>
       </c>
       <c r="L29">
-        <v>4.2700000000000002E-2</v>
+        <v>1.2E-2</v>
       </c>
       <c r="M29">
-        <v>0.69199999999999995</v>
+        <v>-0.12709999999999999</v>
       </c>
       <c r="N29">
-        <v>2</v>
-      </c>
-      <c r="O29" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="O29">
+        <v>8.6999999999999994E-3</v>
       </c>
       <c r="P29">
-        <v>1</v>
+        <v>0.9909</v>
       </c>
       <c r="Q29">
-        <v>6.9173</v>
-      </c>
-      <c r="R29" t="s">
-        <v>72</v>
+        <v>1.8196000000000001</v>
+      </c>
+      <c r="R29">
+        <v>1.8</v>
       </c>
       <c r="S29">
-        <v>5247</v>
+        <v>37</v>
       </c>
       <c r="T29" t="s">
         <v>72</v>
       </c>
       <c r="U29" t="s">
-        <v>124</v>
+        <v>75</v>
+      </c>
+      <c r="V29" t="s">
+        <v>210</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <f>LEN(A30)</f>
+        <v>21</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="1"/>
-        <v>Tarletonbeania crenularis'</v>
+        <f>RIGHT(A30,B30-5)</f>
+        <v>Gennadas valens'</v>
       </c>
       <c r="D30">
-        <f t="shared" si="2"/>
-        <v>26</v>
+        <f>LEN(C30)</f>
+        <v>16</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="5"/>
-        <v>tarletonbeania crenularis</v>
+        <f>LOWER(LEFT(C30,D30-1))</f>
+        <v>gennadas valens</v>
       </c>
       <c r="F30">
         <f>VLOOKUP(E30,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>282927</v>
-      </c>
-      <c r="G30" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" t="s">
-        <v>72</v>
+        <v>107098</v>
+      </c>
+      <c r="G30">
+        <v>0.75990000000000002</v>
+      </c>
+      <c r="H30">
+        <v>0.69640000000000002</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
         <v>72</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>4.8500000000000001E-2</v>
+        <v>3.7199999999999997E-2</v>
       </c>
       <c r="M30">
-        <v>0.21329999999999999</v>
+        <v>0.2016</v>
       </c>
       <c r="N30">
         <v>2</v>
@@ -9571,50 +9831,53 @@
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>3.9339</v>
+        <v>3.0931000000000002</v>
       </c>
       <c r="R30">
-        <v>4.2309999999999999</v>
+        <v>4.1985000000000001</v>
       </c>
       <c r="S30">
-        <v>1766</v>
+        <v>702</v>
       </c>
       <c r="T30" t="s">
         <v>72</v>
       </c>
       <c r="U30" t="s">
-        <v>124</v>
+        <v>76</v>
+      </c>
+      <c r="V30" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <f>LEN(A31)</f>
+        <v>25</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="1"/>
-        <v>Tautogolabrus adspersus'</v>
+        <f>RIGHT(A31,B31-5)</f>
+        <v>Gibberulus gibbosus'</v>
       </c>
       <c r="D31">
-        <f t="shared" si="2"/>
-        <v>24</v>
+        <f>LEN(C31)</f>
+        <v>20</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="5"/>
-        <v>tautogolabrus adspersus</v>
+        <f>LOWER(LEFT(C31,D31-1))</f>
+        <v>gibberulus gibbosus</v>
       </c>
       <c r="F31">
         <f>VLOOKUP(E31,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>159785</v>
+        <v>564630</v>
       </c>
       <c r="G31">
-        <v>0.80200000000000005</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="H31">
-        <v>0.32700000000000001</v>
+        <v>0.49180000000000001</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -9626,10 +9889,10 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>5.7799999999999997E-2</v>
+        <v>5.2299999999999999E-2</v>
       </c>
       <c r="M31">
-        <v>0.2445</v>
+        <v>0</v>
       </c>
       <c r="N31">
         <v>2</v>
@@ -9637,812 +9900,848 @@
       <c r="O31" t="s">
         <v>72</v>
       </c>
-      <c r="P31">
-        <v>1</v>
+      <c r="P31" t="s">
+        <v>73</v>
       </c>
       <c r="Q31">
-        <v>3.3374000000000001</v>
+        <v>3.9361999999999999</v>
       </c>
       <c r="R31">
-        <v>3.4472</v>
+        <v>4.0251000000000001</v>
       </c>
       <c r="S31">
-        <v>6454</v>
-      </c>
-      <c r="T31" t="s">
-        <v>72</v>
+        <v>121</v>
+      </c>
+      <c r="T31">
+        <v>4.6207000000000003</v>
       </c>
       <c r="U31" t="s">
-        <v>127</v>
+        <v>98</v>
+      </c>
+      <c r="V31" t="s">
+        <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <f>LEN(A32)</f>
+        <v>28</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="1"/>
-        <v>Tigriopus brevicornis'</v>
+        <f>RIGHT(A32,B32-5)</f>
+        <v>Gobiodon erythrospilus'</v>
       </c>
       <c r="D32">
-        <f t="shared" si="2"/>
-        <v>22</v>
+        <f>LEN(C32)</f>
+        <v>23</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="5"/>
-        <v>tigriopus brevicornis</v>
+        <f>LOWER(LEFT(C32,D32-1))</f>
+        <v>gobiodon erythrospilus</v>
       </c>
       <c r="F32">
         <f>VLOOKUP(E32,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>116183</v>
+        <v>309999</v>
       </c>
       <c r="G32">
-        <v>-1.7014</v>
+        <v>0.3337</v>
       </c>
       <c r="H32">
-        <v>0.56200000000000006</v>
+        <v>0.72419999999999995</v>
       </c>
       <c r="I32">
-        <v>2</v>
-      </c>
-      <c r="J32" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>7.4200000000000002E-2</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>0.94179999999999997</v>
       </c>
       <c r="L32">
-        <v>8.8000000000000005E-3</v>
+        <v>1.66E-2</v>
       </c>
       <c r="M32">
-        <v>0.43969999999999998</v>
+        <v>0.62570000000000003</v>
       </c>
       <c r="N32">
-        <v>2</v>
-      </c>
-      <c r="O32" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>0.1056</v>
       </c>
       <c r="P32">
-        <v>1</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>72</v>
-      </c>
-      <c r="R32" t="s">
-        <v>72</v>
+        <v>0.875</v>
+      </c>
+      <c r="Q32">
+        <v>3.8799000000000001</v>
+      </c>
+      <c r="R32">
+        <v>3.6467000000000001</v>
       </c>
       <c r="S32">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="T32" t="s">
         <v>72</v>
       </c>
       <c r="U32" t="s">
-        <v>128</v>
+        <v>157</v>
+      </c>
+      <c r="V32" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
-        <v>25</v>
+        <f>LEN(A33)</f>
+        <v>22</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="1"/>
-        <v>Acanthephyra smithi'</v>
+        <f>RIGHT(A33,B33-5)</f>
+        <v>Gobiodon histrio'</v>
       </c>
       <c r="D33">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f>LEN(C33)</f>
+        <v>17</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="5"/>
-        <v>acanthephyra smithi</v>
+        <f>LOWER(LEFT(C33,D33-1))</f>
+        <v>gobiodon histrio</v>
       </c>
       <c r="F33">
         <f>VLOOKUP(E33,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>210432</v>
+        <v>276928</v>
       </c>
       <c r="G33">
-        <v>1.0826</v>
+        <v>-0.1525</v>
       </c>
       <c r="H33">
-        <v>0.31319999999999998</v>
+        <v>1.2281</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J33">
-        <v>0.13150000000000001</v>
+        <v>0.1502</v>
       </c>
       <c r="K33">
-        <v>0.60570000000000002</v>
+        <v>0.95850000000000002</v>
       </c>
       <c r="L33">
-        <v>3.4500000000000003E-2</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="M33">
-        <v>-3.0099999999999998E-2</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O33">
-        <v>0.01</v>
+        <v>0.17499999999999999</v>
       </c>
       <c r="P33">
-        <v>0.7823</v>
+        <v>0.87070000000000003</v>
       </c>
       <c r="Q33">
-        <v>1.6415</v>
+        <v>4.4436999999999998</v>
       </c>
       <c r="R33">
-        <v>1.6</v>
+        <v>4.0080999999999998</v>
       </c>
       <c r="S33">
+        <v>276</v>
+      </c>
+      <c r="T33" t="s">
+        <v>72</v>
+      </c>
+      <c r="U33" t="s">
+        <v>157</v>
+      </c>
+      <c r="V33" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <f>LEN(A34)</f>
+        <v>22</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f>RIGHT(A34,B34-5)</f>
+        <v>Lophelia pertusa'</v>
+      </c>
+      <c r="D34" s="2">
+        <f>LEN(C34)</f>
         <v>17</v>
       </c>
-      <c r="T33" t="s">
-        <v>72</v>
-      </c>
-      <c r="U33" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>9</v>
-      </c>
-      <c r="B34">
-        <f t="shared" ref="B34:B65" si="6">LEN(A34)</f>
-        <v>27</v>
-      </c>
-      <c r="C34" t="str">
-        <f t="shared" ref="C34:C65" si="7">RIGHT(A34,B34-5)</f>
-        <v>Bythograea thermydron'</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ref="D34:D65" si="8">LEN(C34)</f>
-        <v>22</v>
-      </c>
-      <c r="E34" t="str">
-        <f t="shared" si="5"/>
-        <v>bythograea thermydron</v>
+      <c r="E34" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="F34">
         <f>VLOOKUP(E34,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>440289</v>
-      </c>
-      <c r="G34">
-        <v>0.70169999999999999</v>
-      </c>
-      <c r="H34">
-        <v>0.56299999999999994</v>
+        <v>1245747</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
       </c>
       <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>2.35E-2</v>
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>72</v>
       </c>
       <c r="K34">
-        <v>0.99870000000000003</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>1.9199999999999998E-2</v>
+        <v>0.1004</v>
       </c>
       <c r="M34">
-        <v>0.24410000000000001</v>
+        <v>0.42259999999999998</v>
       </c>
       <c r="N34">
-        <v>3</v>
-      </c>
-      <c r="O34">
-        <v>3.7699999999999997E-2</v>
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
       </c>
       <c r="P34">
-        <v>0.97970000000000002</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>72</v>
-      </c>
-      <c r="R34" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <v>1.5454000000000001</v>
+      </c>
+      <c r="R34">
+        <v>1.5478000000000001</v>
       </c>
       <c r="S34">
-        <v>100</v>
+        <v>6366</v>
       </c>
       <c r="T34" t="s">
         <v>72</v>
       </c>
       <c r="U34" t="s">
-        <v>81</v>
+        <v>99</v>
+      </c>
+      <c r="V34" t="s">
+        <v>161</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>LEN(A35)</f>
+        <v>24</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" si="7"/>
-        <v>Callinectes sapidus'</v>
+        <f>RIGHT(A35,B35-5)</f>
+        <v>Maja brachydactyla'</v>
       </c>
       <c r="D35">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f>LEN(C35)</f>
+        <v>19</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="5"/>
-        <v>callinectes sapidus</v>
+        <f>LOWER(LEFT(C35,D35-1))</f>
+        <v>maja brachydactyla</v>
       </c>
       <c r="F35">
         <f>VLOOKUP(E35,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>107379</v>
-      </c>
-      <c r="G35">
-        <v>0.40360000000000001</v>
-      </c>
-      <c r="H35">
-        <v>1.0398000000000001</v>
+        <v>107347</v>
+      </c>
+      <c r="G35" t="s">
+        <v>72</v>
+      </c>
+      <c r="H35" t="s">
+        <v>72</v>
       </c>
       <c r="I35">
-        <v>3</v>
-      </c>
-      <c r="J35">
-        <v>0.2445</v>
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>72</v>
       </c>
       <c r="K35">
-        <v>0.96389999999999998</v>
+        <v>0</v>
       </c>
       <c r="L35">
-        <v>3.0200000000000001E-2</v>
+        <v>5.9900000000000002E-2</v>
       </c>
       <c r="M35">
-        <v>0.44579999999999997</v>
+        <v>0.36370000000000002</v>
       </c>
       <c r="N35">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="O35">
-        <v>0.12189999999999999</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>0.83899999999999997</v>
+        <v>0.40570000000000001</v>
       </c>
       <c r="Q35">
-        <v>2.9407000000000001</v>
+        <v>3.3788</v>
       </c>
       <c r="R35">
-        <v>2.8719000000000001</v>
+        <v>3.8961000000000001</v>
       </c>
       <c r="S35">
-        <v>51815</v>
-      </c>
-      <c r="T35">
-        <v>4.5999999999999996</v>
+        <v>50</v>
+      </c>
+      <c r="T35" t="s">
+        <v>72</v>
       </c>
       <c r="U35" t="s">
-        <v>82</v>
+        <v>100</v>
+      </c>
+      <c r="V35" t="s">
+        <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <f t="shared" si="6"/>
-        <v>25</v>
+        <f>LEN(A36)</f>
+        <v>27</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="7"/>
-        <v>Carassius carassius'</v>
+        <f>RIGHT(A36,B36-5)</f>
+        <v>Melanostigma pammelas'</v>
       </c>
       <c r="D36">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f>LEN(C36)</f>
+        <v>22</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="5"/>
-        <v>carassius carassius</v>
+        <f>LOWER(LEFT(C36,D36-1))</f>
+        <v>melanostigma pammelas</v>
       </c>
       <c r="F36">
         <f>VLOOKUP(E36,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>154297</v>
+        <v>274134</v>
       </c>
       <c r="G36">
-        <v>6.2300000000000001E-2</v>
+        <v>0.9456</v>
       </c>
       <c r="H36">
-        <v>0.15720000000000001</v>
+        <v>1.6820999999999999</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36">
-        <v>0.13800000000000001</v>
+        <v>5.3E-3</v>
       </c>
       <c r="K36">
-        <v>0.56440000000000001</v>
+        <v>0.99690000000000001</v>
       </c>
       <c r="L36">
-        <v>2.47E-2</v>
+        <v>3.9600000000000003E-2</v>
       </c>
       <c r="M36">
-        <v>-2.8000000000000001E-2</v>
+        <v>0.86140000000000005</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O36">
-        <v>1.4200000000000001E-2</v>
+        <v>9.1200000000000003E-2</v>
       </c>
       <c r="P36">
-        <v>0.73519999999999996</v>
+        <v>0.91510000000000002</v>
       </c>
       <c r="Q36" t="s">
-        <v>72</v>
-      </c>
-      <c r="R36" t="s">
-        <v>72</v>
+        <v>142</v>
+      </c>
+      <c r="R36">
+        <v>1.6</v>
       </c>
       <c r="S36">
-        <v>281</v>
-      </c>
-      <c r="T36">
-        <v>6.2747999999999999</v>
+        <v>178</v>
+      </c>
+      <c r="T36" t="s">
+        <v>72</v>
       </c>
       <c r="U36" t="s">
-        <v>84</v>
+        <v>101</v>
+      </c>
+      <c r="V36" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <f t="shared" si="6"/>
-        <v>21</v>
+        <f>LEN(A37)</f>
+        <v>22</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="7"/>
-        <v>Carcinus maenas'</v>
+        <f>RIGHT(A37,B37-5)</f>
+        <v>Morone saxatilis'</v>
       </c>
       <c r="D37">
-        <f t="shared" si="8"/>
-        <v>16</v>
+        <f>LEN(C37)</f>
+        <v>17</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="5"/>
-        <v>carcinus maenas</v>
+        <f>LOWER(LEFT(C37,D37-1))</f>
+        <v>morone saxatilis</v>
       </c>
       <c r="F37">
         <f>VLOOKUP(E37,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>107381</v>
+        <v>151179</v>
       </c>
       <c r="G37">
-        <v>-9.2899999999999996E-2</v>
+        <v>0.97540000000000004</v>
       </c>
       <c r="H37">
-        <v>0.61339999999999995</v>
+        <v>0.57869999999999999</v>
       </c>
       <c r="I37">
-        <v>3</v>
-      </c>
-      <c r="J37">
-        <v>3.39E-2</v>
+        <v>2</v>
+      </c>
+      <c r="J37" t="s">
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.99350000000000005</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>4.3299999999999998E-2</v>
+        <v>4.19E-2</v>
       </c>
       <c r="M37">
-        <v>0.40100000000000002</v>
+        <v>0.31929999999999997</v>
       </c>
       <c r="N37">
-        <v>3</v>
-      </c>
-      <c r="O37">
-        <v>9.06E-2</v>
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>72</v>
       </c>
       <c r="P37">
-        <v>0.90300000000000002</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>4.1471999999999998</v>
+        <v>2.8</v>
       </c>
       <c r="R37">
-        <v>4.6147</v>
+        <v>4.3587999999999996</v>
       </c>
       <c r="S37">
-        <v>27462</v>
-      </c>
-      <c r="T37" t="s">
-        <v>72</v>
+        <v>3141</v>
+      </c>
+      <c r="T37">
+        <v>4.5</v>
       </c>
       <c r="U37" t="s">
-        <v>85</v>
+        <v>102</v>
+      </c>
+      <c r="V37" t="s">
+        <v>176</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f>LEN(A38)</f>
+        <v>17</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="7"/>
-        <v>Crassostrea gigas'</v>
+        <f>RIGHT(A38,B38-5)</f>
+        <v>Mytilus sp.'</v>
       </c>
       <c r="D38">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="E38" t="s">
-        <v>156</v>
+        <f>LEN(C38)</f>
+        <v>12</v>
+      </c>
+      <c r="E38" t="str">
+        <f>LOWER(LEFT(C38,D38-1))</f>
+        <v>mytilus sp.</v>
       </c>
       <c r="F38">
         <f>VLOOKUP(E38,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>836033</v>
+        <v>138228</v>
       </c>
       <c r="G38">
-        <v>0.74909999999999999</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="H38">
-        <v>0.54430000000000001</v>
+        <v>0.21629999999999999</v>
       </c>
       <c r="I38">
         <v>3</v>
       </c>
       <c r="J38">
-        <v>6.9199999999999998E-2</v>
+        <v>8.9200000000000002E-2</v>
       </c>
       <c r="K38">
-        <v>0.9728</v>
+        <v>0.73939999999999995</v>
       </c>
       <c r="L38">
-        <v>7.6100000000000001E-2</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="M38">
-        <v>0.21510000000000001</v>
+        <v>0.16869999999999999</v>
       </c>
       <c r="N38">
         <v>3</v>
       </c>
       <c r="O38">
-        <v>1.01E-2</v>
+        <v>3.1099999999999999E-2</v>
       </c>
       <c r="P38">
-        <v>0.99109999999999998</v>
-      </c>
-      <c r="Q38">
-        <v>2.4537</v>
-      </c>
-      <c r="R38">
-        <v>2.5228000000000002</v>
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>72</v>
+      </c>
+      <c r="R38" t="s">
+        <v>72</v>
       </c>
       <c r="S38">
-        <v>2160</v>
+        <v>0</v>
       </c>
       <c r="T38" t="s">
         <v>72</v>
       </c>
       <c r="U38" t="s">
-        <v>88</v>
+        <v>103</v>
+      </c>
+      <c r="V38" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f>LEN(A39)</f>
         <v>24</v>
       </c>
-      <c r="B39">
-        <f t="shared" si="6"/>
-        <v>18</v>
-      </c>
       <c r="C39" t="str">
-        <f t="shared" si="7"/>
-        <v>Gadus morhua'</v>
+        <f>RIGHT(A39,B39-5)</f>
+        <v>Nautilus pompilius'</v>
       </c>
       <c r="D39">
-        <f t="shared" si="8"/>
-        <v>13</v>
+        <f>LEN(C39)</f>
+        <v>19</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" ref="E39:E44" si="9">LOWER(LEFT(C39,D39-1))</f>
-        <v>gadus morhua</v>
+        <f>LOWER(LEFT(C39,D39-1))</f>
+        <v>nautilus pompilius</v>
       </c>
       <c r="F39">
         <f>VLOOKUP(E39,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>126436</v>
+        <v>138228</v>
       </c>
       <c r="G39">
-        <v>0.94820000000000004</v>
+        <v>0.37669999999999998</v>
       </c>
       <c r="H39">
-        <v>0.51900000000000002</v>
+        <v>0.67449999999999999</v>
       </c>
       <c r="I39">
         <v>3</v>
       </c>
       <c r="J39">
-        <v>2.3800000000000002E-2</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="K39">
-        <v>0.98970000000000002</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="L39">
-        <v>6.2100000000000002E-2</v>
+        <v>3.8899999999999997E-2</v>
       </c>
       <c r="M39">
-        <v>0.34720000000000001</v>
+        <v>0.56059999999999999</v>
       </c>
       <c r="N39">
         <v>3</v>
       </c>
-      <c r="O39" t="s">
-        <v>72</v>
+      <c r="O39">
+        <v>1.78E-2</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0.99260000000000004</v>
       </c>
       <c r="Q39">
-        <v>2.4</v>
+        <v>2.2624</v>
       </c>
       <c r="R39">
         <v>2.4</v>
       </c>
       <c r="S39">
-        <v>1108165</v>
+        <v>10987</v>
       </c>
       <c r="T39">
-        <v>3.3</v>
+        <v>3.8165</v>
       </c>
       <c r="U39" t="s">
-        <v>95</v>
+        <v>104</v>
+      </c>
+      <c r="V39" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f>LEN(A40)</f>
+        <v>24</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="7"/>
-        <v>Gaussia princeps'</v>
+        <f>RIGHT(A40,B40-5)</f>
+        <v>Notostomus elegans'</v>
       </c>
       <c r="D40">
-        <f t="shared" si="8"/>
-        <v>17</v>
+        <f>LEN(C40)</f>
+        <v>19</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="9"/>
-        <v>gaussia princeps</v>
+        <f>LOWER(LEFT(C40,D40-1))</f>
+        <v>notostomus elegans</v>
       </c>
       <c r="F40">
         <f>VLOOKUP(E40,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>104625</v>
+        <v>107600</v>
       </c>
       <c r="G40">
-        <v>-0.13550000000000001</v>
+        <v>1.1598999999999999</v>
       </c>
       <c r="H40">
-        <v>0.1464</v>
+        <v>1.1178999999999999</v>
       </c>
       <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40">
-        <v>0.1062</v>
+        <v>2</v>
+      </c>
+      <c r="J40" t="s">
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.47789999999999999</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>1.2E-2</v>
+        <v>4.1000000000000002E-2</v>
       </c>
       <c r="M40">
-        <v>-0.12709999999999999</v>
+        <v>0.43809999999999999</v>
       </c>
       <c r="N40">
-        <v>3</v>
-      </c>
-      <c r="O40">
-        <v>8.6999999999999994E-3</v>
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
       </c>
       <c r="P40">
-        <v>0.9909</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>1.8196000000000001</v>
+        <v>2.7951000000000001</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>2.3033999999999999</v>
       </c>
       <c r="S40">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="T40" t="s">
         <v>72</v>
       </c>
       <c r="U40" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="V40" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" si="6"/>
-        <v>17</v>
+        <f>LEN(A41)</f>
+        <v>25</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="7"/>
-        <v>Mytilus sp.'</v>
+        <f>RIGHT(A41,B41-5)</f>
+        <v>Notostomus gibbosus'</v>
       </c>
       <c r="D41">
-        <f t="shared" si="8"/>
-        <v>12</v>
+        <f>LEN(C41)</f>
+        <v>20</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="9"/>
-        <v>mytilus sp.</v>
+        <f>LOWER(LEFT(C41,D41-1))</f>
+        <v>notostomus gibbosus</v>
       </c>
       <c r="F41">
         <f>VLOOKUP(E41,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>138228</v>
+        <v>212899</v>
       </c>
       <c r="G41">
-        <v>0.69399999999999995</v>
+        <v>0.77270000000000005</v>
       </c>
       <c r="H41">
-        <v>0.21629999999999999</v>
+        <v>1.3287</v>
       </c>
       <c r="I41">
-        <v>3</v>
-      </c>
-      <c r="J41">
-        <v>8.9200000000000002E-2</v>
+        <v>2</v>
+      </c>
+      <c r="J41" t="s">
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.73939999999999995</v>
+        <v>1</v>
       </c>
       <c r="L41">
-        <v>6.0199999999999997E-2</v>
+        <v>7.0999999999999994E-2</v>
       </c>
       <c r="M41">
-        <v>0.16869999999999999</v>
+        <v>0.91979999999999995</v>
       </c>
       <c r="N41">
-        <v>3</v>
-      </c>
-      <c r="O41">
-        <v>3.1099999999999999E-2</v>
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
       </c>
       <c r="P41">
-        <v>0.89229999999999998</v>
-      </c>
-      <c r="Q41" t="s">
-        <v>72</v>
-      </c>
-      <c r="R41" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>2</v>
+      </c>
+      <c r="R41">
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="T41" t="s">
         <v>72</v>
       </c>
       <c r="U41" t="s">
-        <v>104</v>
+        <v>74</v>
+      </c>
+      <c r="V41" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="6"/>
-        <v>24</v>
+        <f>LEN(A42)</f>
+        <v>22</v>
       </c>
       <c r="C42" t="str">
-        <f t="shared" si="7"/>
-        <v>Nautilus pompilius'</v>
+        <f>RIGHT(A42,B42-5)</f>
+        <v>Octopus vulgaris'</v>
       </c>
       <c r="D42">
-        <f t="shared" si="8"/>
-        <v>19</v>
+        <f>LEN(C42)</f>
+        <v>17</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="9"/>
-        <v>nautilus pompilius</v>
+        <f>LOWER(LEFT(C42,D42-1))</f>
+        <v>octopus vulgaris</v>
       </c>
       <c r="F42">
         <f>VLOOKUP(E42,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>138228</v>
-      </c>
-      <c r="G42">
-        <v>0.37669999999999998</v>
-      </c>
-      <c r="H42">
-        <v>0.67449999999999999</v>
+        <v>140605</v>
+      </c>
+      <c r="G42" t="s">
+        <v>72</v>
+      </c>
+      <c r="H42" t="s">
+        <v>72</v>
       </c>
       <c r="I42">
-        <v>3</v>
-      </c>
-      <c r="J42">
-        <v>9.7000000000000003E-3</v>
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
       </c>
       <c r="K42">
-        <v>0.99909999999999999</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>3.8899999999999997E-2</v>
+        <v>5.4199999999999998E-2</v>
       </c>
       <c r="M42">
-        <v>0.56059999999999999</v>
+        <v>0.3296</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="O42">
-        <v>1.78E-2</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>0.99260000000000004</v>
+        <v>0.16020000000000001</v>
       </c>
       <c r="Q42">
-        <v>2.2624</v>
+        <v>2.2082000000000002</v>
       </c>
       <c r="R42">
-        <v>2.4</v>
+        <v>2.4722</v>
       </c>
       <c r="S42">
-        <v>10987</v>
-      </c>
-      <c r="T42">
-        <v>3.8165</v>
+        <v>3446</v>
+      </c>
+      <c r="T42" t="s">
+        <v>72</v>
       </c>
       <c r="U42" t="s">
         <v>105</v>
       </c>
+      <c r="V42" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" si="6"/>
+        <f>LEN(A43)</f>
         <v>31</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="7"/>
+        <f>RIGHT(A43,B43-5)</f>
         <v>Oplophorus gracilirostris'</v>
       </c>
       <c r="D43">
-        <f t="shared" si="8"/>
+        <f>LEN(C43)</f>
         <v>26</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="9"/>
+        <f>LOWER(LEFT(C43,D43-1))</f>
         <v>oplophorus gracilirostris</v>
       </c>
       <c r="F43">
@@ -10494,25 +10793,28 @@
       <c r="U43" t="s">
         <v>76</v>
       </c>
+      <c r="V43" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="6"/>
+        <f>LEN(A44)</f>
         <v>25</v>
       </c>
       <c r="C44" t="str">
-        <f t="shared" si="7"/>
+        <f>RIGHT(A44,B44-5)</f>
         <v>Oplophorus spinosus'</v>
       </c>
       <c r="D44">
-        <f t="shared" si="8"/>
+        <f>LEN(C44)</f>
         <v>20</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="9"/>
+        <f>LOWER(LEFT(C44,D44-1))</f>
         <v>oplophorus spinosus</v>
       </c>
       <c r="F44">
@@ -10564,29 +10866,33 @@
       <c r="U44" t="s">
         <v>74</v>
       </c>
+      <c r="V44" t="s">
+        <v>158</v>
+      </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" si="6"/>
+        <f>LEN(A45)</f>
         <v>27</v>
       </c>
       <c r="C45" t="str">
-        <f t="shared" si="7"/>
-        <v>Palaemonetes vulgaris'</v>
+        <f>RIGHT(A45,B45-5)</f>
+        <v>Oreochromis niloticus'</v>
       </c>
       <c r="D45">
-        <f t="shared" si="8"/>
+        <f>LEN(C45)</f>
         <v>22</v>
       </c>
-      <c r="E45" t="s">
-        <v>157</v>
+      <c r="E45" t="str">
+        <f>LOWER(LEFT(C45,D45-1))</f>
+        <v>oreochromis niloticus</v>
       </c>
       <c r="F45">
         <f>VLOOKUP(E45,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>932406</v>
+        <v>293639</v>
       </c>
       <c r="G45" t="s">
         <v>72</v>
@@ -10604,757 +10910,790 @@
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1.9300000000000001E-2</v>
+        <v>1.95E-2</v>
       </c>
       <c r="M45">
-        <v>0.49390000000000001</v>
+        <v>0.2732</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O45">
-        <v>0.28560000000000002</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="P45">
-        <v>0.47620000000000001</v>
-      </c>
-      <c r="Q45">
-        <v>4.5914999999999999</v>
-      </c>
-      <c r="R45">
-        <v>4.1478999999999999</v>
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>72</v>
+      </c>
+      <c r="R45" t="s">
+        <v>72</v>
       </c>
       <c r="S45">
-        <v>5390</v>
-      </c>
-      <c r="T45" t="s">
-        <v>72</v>
+        <v>145</v>
+      </c>
+      <c r="T45">
+        <v>3.4803000000000002</v>
       </c>
       <c r="U45" t="s">
-        <v>109</v>
+        <v>106</v>
+      </c>
+      <c r="V45" t="s">
+        <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f>LEN(A46)</f>
+        <v>24</v>
       </c>
       <c r="C46" t="str">
-        <f t="shared" si="7"/>
-        <v>Panulirus cygnus'</v>
+        <f>RIGHT(A46,B46-5)</f>
+        <v>Palaemonetes pugio'</v>
       </c>
       <c r="D46">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="E46" t="str">
-        <f>LOWER(LEFT(C46,D46-1))</f>
-        <v>panulirus cygnus</v>
+        <f>LEN(C46)</f>
+        <v>19</v>
+      </c>
+      <c r="E46" t="s">
+        <v>150</v>
       </c>
       <c r="F46">
         <f>VLOOKUP(E46,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>382893</v>
-      </c>
-      <c r="G46">
-        <v>0.56210000000000004</v>
-      </c>
-      <c r="H46">
-        <v>0.67610000000000003</v>
+        <v>932401</v>
+      </c>
+      <c r="G46" t="s">
+        <v>72</v>
+      </c>
+      <c r="H46" t="s">
+        <v>72</v>
       </c>
       <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46">
-        <v>0.25769999999999998</v>
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>72</v>
       </c>
       <c r="K46">
-        <v>0.94169999999999998</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>4.82E-2</v>
+        <v>6.8999999999999999E-3</v>
       </c>
       <c r="M46">
-        <v>0.33889999999999998</v>
+        <v>1.3483000000000001</v>
       </c>
       <c r="N46">
-        <v>3</v>
-      </c>
-      <c r="O46">
-        <v>3.2000000000000001E-2</v>
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>72</v>
       </c>
       <c r="P46">
-        <v>0.98050000000000004</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>2.8988</v>
+        <v>2.5853000000000002</v>
       </c>
       <c r="R46">
-        <v>2.8725000000000001</v>
+        <v>2.1867999999999999</v>
       </c>
       <c r="S46">
-        <v>9</v>
+        <v>1041</v>
       </c>
       <c r="T46" t="s">
         <v>72</v>
       </c>
       <c r="U46" t="s">
-        <v>112</v>
+        <v>87</v>
+      </c>
+      <c r="V46" t="s">
+        <v>166</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" si="6"/>
+        <f>LEN(A47)</f>
         <v>27</v>
       </c>
       <c r="C47" t="str">
-        <f t="shared" si="7"/>
-        <v>Parabramis pekinensis'</v>
+        <f>RIGHT(A47,B47-5)</f>
+        <v>Palaemonetes vulgaris'</v>
       </c>
       <c r="D47">
-        <f t="shared" si="8"/>
+        <f>LEN(C47)</f>
         <v>22</v>
       </c>
-      <c r="E47" t="str">
-        <f>LOWER(LEFT(C47,D47-1))</f>
-        <v>parabramis pekinensis</v>
+      <c r="E47" t="s">
+        <v>153</v>
       </c>
       <c r="F47">
         <f>VLOOKUP(E47,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>1013562</v>
-      </c>
-      <c r="G47">
-        <v>0.84970000000000001</v>
-      </c>
-      <c r="H47">
-        <v>0.3533</v>
+        <v>932406</v>
+      </c>
+      <c r="G47" t="s">
+        <v>72</v>
+      </c>
+      <c r="H47" t="s">
+        <v>72</v>
       </c>
       <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47">
-        <v>0.1502</v>
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.89229999999999998</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>3.27E-2</v>
+        <v>1.9300000000000001E-2</v>
       </c>
       <c r="M47">
-        <v>-9.1200000000000003E-2</v>
+        <v>0.49390000000000001</v>
       </c>
       <c r="N47">
         <v>3</v>
       </c>
       <c r="O47">
-        <v>1.4500000000000001E-2</v>
+        <v>0.28560000000000002</v>
       </c>
       <c r="P47">
-        <v>0.96909999999999996</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>72</v>
-      </c>
-      <c r="R47" t="s">
-        <v>72</v>
+        <v>0.47620000000000001</v>
+      </c>
+      <c r="Q47">
+        <v>4.5914999999999999</v>
+      </c>
+      <c r="R47">
+        <v>4.1478999999999999</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>5390</v>
       </c>
       <c r="T47" t="s">
         <v>72</v>
       </c>
       <c r="U47" t="s">
-        <v>114</v>
+        <v>107</v>
+      </c>
+      <c r="V47" t="s">
+        <v>175</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f>LEN(A48)</f>
+        <v>23</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="7"/>
-        <v>Pecten maximus'</v>
+        <f>RIGHT(A48,B48-5)</f>
+        <v>Pandalus borealis'</v>
       </c>
       <c r="D48">
-        <f t="shared" si="8"/>
-        <v>15</v>
+        <f>LEN(C48)</f>
+        <v>18</v>
       </c>
       <c r="E48" t="str">
         <f>LOWER(LEFT(C48,D48-1))</f>
-        <v>pecten maximus</v>
+        <v>pandalus borealis</v>
       </c>
       <c r="F48">
         <f>VLOOKUP(E48,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>140712</v>
+        <v>107649</v>
       </c>
       <c r="G48">
-        <v>0.62860000000000005</v>
+        <v>-0.25950000000000001</v>
       </c>
       <c r="H48">
-        <v>0.13200000000000001</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="I48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J48">
-        <v>9.7500000000000003E-2</v>
+        <v>2.9499999999999998E-2</v>
       </c>
       <c r="K48">
-        <v>0.44169999999999998</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="L48">
-        <v>4.6800000000000001E-2</v>
+        <v>0.1003</v>
       </c>
       <c r="M48">
-        <v>0.30399999999999999</v>
+        <v>0.91810000000000003</v>
       </c>
       <c r="N48">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O48">
-        <v>2.9000000000000001E-2</v>
+        <v>5.7500000000000002E-2</v>
       </c>
       <c r="P48">
-        <v>0.96879999999999999</v>
+        <v>0.998</v>
       </c>
       <c r="Q48">
-        <v>4.3829000000000002</v>
+        <v>3.8147000000000002</v>
       </c>
       <c r="R48">
-        <v>4.4764999999999997</v>
+        <v>3.9</v>
       </c>
       <c r="S48">
-        <v>1269</v>
+        <v>16951</v>
       </c>
       <c r="T48" t="s">
         <v>72</v>
       </c>
       <c r="U48" t="s">
-        <v>104</v>
+        <v>108</v>
+      </c>
+      <c r="V48" t="s">
+        <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" si="6"/>
-        <v>29</v>
+        <f>LEN(A49)</f>
+        <v>25</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="7"/>
-        <v>Phorgulsergia bisulcata'</v>
+        <f>RIGHT(A49,B49-5)</f>
+        <v>Pandalus platyceros'</v>
       </c>
       <c r="D49">
-        <f t="shared" si="8"/>
-        <v>24</v>
-      </c>
-      <c r="E49" t="s">
-        <v>155</v>
+        <f>LEN(C49)</f>
+        <v>20</v>
+      </c>
+      <c r="E49" t="str">
+        <f>LOWER(LEFT(C49,D49-1))</f>
+        <v>pandalus platyceros</v>
       </c>
       <c r="F49">
         <f>VLOOKUP(E49,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>1056510</v>
-      </c>
-      <c r="G49">
-        <v>0.84970000000000001</v>
-      </c>
-      <c r="H49">
-        <v>0.42470000000000002</v>
+        <v>423632</v>
+      </c>
+      <c r="G49" t="s">
+        <v>72</v>
+      </c>
+      <c r="H49" t="s">
+        <v>72</v>
       </c>
       <c r="I49">
-        <v>3</v>
-      </c>
-      <c r="J49">
-        <v>4.9200000000000001E-2</v>
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>72</v>
       </c>
       <c r="K49">
-        <v>0.95950000000000002</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>7.1999999999999995E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
       <c r="M49">
-        <v>0.5</v>
+        <v>0.15359999999999999</v>
       </c>
       <c r="N49">
-        <v>3</v>
-      </c>
-      <c r="O49">
-        <v>2.1100000000000001E-2</v>
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>72</v>
       </c>
       <c r="P49">
-        <v>0.99809999999999999</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>72</v>
-      </c>
-      <c r="R49" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1.5563</v>
+      </c>
+      <c r="R49">
+        <v>1.2635000000000001</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>4095</v>
       </c>
       <c r="T49" t="s">
         <v>72</v>
       </c>
       <c r="U49" t="s">
-        <v>74</v>
+        <v>109</v>
+      </c>
+      <c r="V49" t="s">
+        <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B50">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f>LEN(A50)</f>
+        <v>22</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="7"/>
-        <v>Scyliorhinus canicula'</v>
+        <f>RIGHT(A50,B50-5)</f>
+        <v>Panulirus cygnus'</v>
       </c>
       <c r="D50">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f>LEN(C50)</f>
+        <v>17</v>
       </c>
       <c r="E50" t="str">
         <f>LOWER(LEFT(C50,D50-1))</f>
-        <v>scyliorhinus canicula</v>
+        <v>panulirus cygnus</v>
       </c>
       <c r="F50">
         <f>VLOOKUP(E50,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>105814</v>
+        <v>382893</v>
       </c>
       <c r="G50">
-        <v>0.92030000000000001</v>
+        <v>0.56210000000000004</v>
       </c>
       <c r="H50">
-        <v>0.64359999999999995</v>
+        <v>0.67610000000000003</v>
       </c>
       <c r="I50">
         <v>3</v>
       </c>
       <c r="J50">
-        <v>2.5100000000000001E-2</v>
+        <v>0.25769999999999998</v>
       </c>
       <c r="K50">
-        <v>0.98660000000000003</v>
+        <v>0.94169999999999998</v>
       </c>
       <c r="L50">
-        <v>9.8199999999999996E-2</v>
+        <v>4.82E-2</v>
       </c>
       <c r="M50">
-        <v>0.23169999999999999</v>
+        <v>0.33889999999999998</v>
       </c>
       <c r="N50">
         <v>3</v>
       </c>
       <c r="O50">
-        <v>2.63E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="P50">
-        <v>0.95679999999999998</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="Q50">
-        <v>2.0356000000000001</v>
+        <v>2.8988</v>
       </c>
       <c r="R50">
-        <v>2.1103000000000001</v>
+        <v>2.8725000000000001</v>
       </c>
       <c r="S50">
-        <v>103926</v>
+        <v>9</v>
       </c>
       <c r="T50" t="s">
         <v>72</v>
       </c>
       <c r="U50" t="s">
-        <v>121</v>
+        <v>110</v>
+      </c>
+      <c r="V50" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" si="6"/>
-        <v>20</v>
+        <f>LEN(A51)</f>
+        <v>27</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="7"/>
-        <v>Sergia fulgens'</v>
+        <f>RIGHT(A51,B51-5)</f>
+        <v>Panulirus interruptus'</v>
       </c>
       <c r="D51">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="E51" t="s">
-        <v>158</v>
+        <f>LEN(C51)</f>
+        <v>22</v>
+      </c>
+      <c r="E51" t="str">
+        <f>LOWER(LEFT(C51,D51-1))</f>
+        <v>panulirus interruptus</v>
       </c>
       <c r="F51">
         <f>VLOOKUP(E51,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>1056490</v>
-      </c>
-      <c r="G51">
-        <v>1.0758000000000001</v>
-      </c>
-      <c r="H51">
-        <v>0.76959999999999995</v>
+        <v>382898</v>
+      </c>
+      <c r="G51" t="s">
+        <v>72</v>
+      </c>
+      <c r="H51" t="s">
+        <v>72</v>
       </c>
       <c r="I51">
-        <v>3</v>
-      </c>
-      <c r="J51">
-        <v>5.4000000000000003E-3</v>
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>72</v>
       </c>
       <c r="K51">
-        <v>0.99990000000000001</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>7.8E-2</v>
+        <v>3.4599999999999999E-2</v>
       </c>
       <c r="M51">
-        <v>0.5625</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="N51">
-        <v>3</v>
-      </c>
-      <c r="O51">
-        <v>2.2000000000000001E-3</v>
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>72</v>
       </c>
       <c r="P51">
         <v>1</v>
       </c>
-      <c r="Q51" t="s">
-        <v>147</v>
+      <c r="Q51">
+        <v>3.9916</v>
       </c>
       <c r="R51">
-        <v>1.1000000000000001</v>
+        <v>3.7</v>
       </c>
       <c r="S51">
-        <v>41</v>
+        <v>1140</v>
       </c>
       <c r="T51" t="s">
         <v>72</v>
       </c>
       <c r="U51" t="s">
-        <v>74</v>
+        <v>111</v>
+      </c>
+      <c r="V51" t="s">
+        <v>177</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f>LEN(A52)</f>
+        <v>27</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="7"/>
-        <v>Sergia tenuiremis'</v>
+        <f>RIGHT(A52,B52-5)</f>
+        <v>Parabramis pekinensis'</v>
       </c>
       <c r="D52">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f>LEN(C52)</f>
+        <v>22</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" ref="E52:E73" si="10">LOWER(LEFT(C52,D52-1))</f>
-        <v>sergia tenuiremis</v>
+        <f>LOWER(LEFT(C52,D52-1))</f>
+        <v>parabramis pekinensis</v>
       </c>
       <c r="F52">
         <f>VLOOKUP(E52,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>107138</v>
+        <v>1013562</v>
       </c>
       <c r="G52">
-        <v>0.69640000000000002</v>
+        <v>0.84970000000000001</v>
       </c>
       <c r="H52">
-        <v>0.35349999999999998</v>
+        <v>0.3533</v>
       </c>
       <c r="I52">
         <v>3</v>
       </c>
       <c r="J52">
-        <v>0.13159999999999999</v>
+        <v>0.1502</v>
       </c>
       <c r="K52">
-        <v>0.70679999999999998</v>
+        <v>0.89229999999999998</v>
       </c>
       <c r="L52">
-        <v>5.5199999999999999E-2</v>
+        <v>3.27E-2</v>
       </c>
       <c r="M52">
-        <v>0.35189999999999999</v>
+        <v>-9.1200000000000003E-2</v>
       </c>
       <c r="N52">
         <v>3</v>
       </c>
       <c r="O52">
-        <v>1.7899999999999999E-2</v>
+        <v>1.4500000000000001E-2</v>
       </c>
       <c r="P52">
-        <v>0.99650000000000005</v>
+        <v>0.96909999999999996</v>
       </c>
       <c r="Q52" t="s">
-        <v>148</v>
-      </c>
-      <c r="R52">
-        <v>3.3290000000000002</v>
+        <v>72</v>
+      </c>
+      <c r="R52" t="s">
+        <v>72</v>
       </c>
       <c r="S52">
-        <v>156</v>
+        <v>0</v>
       </c>
       <c r="T52" t="s">
         <v>72</v>
       </c>
       <c r="U52" t="s">
-        <v>74</v>
+        <v>112</v>
+      </c>
+      <c r="V52" t="s">
+        <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B53">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f>LEN(A53)</f>
+        <v>27</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="7"/>
-        <v>Gobiodon erythrospilus'</v>
+        <f>RIGHT(A53,B53-5)</f>
+        <v>Paralichthys dentatus'</v>
       </c>
       <c r="D53">
-        <f t="shared" si="8"/>
-        <v>23</v>
+        <f>LEN(C53)</f>
+        <v>22</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="10"/>
-        <v>gobiodon erythrospilus</v>
+        <f>LOWER(LEFT(C53,D53-1))</f>
+        <v>paralichthys dentatus</v>
       </c>
       <c r="F53">
         <f>VLOOKUP(E53,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>309999</v>
+        <v>158826</v>
       </c>
       <c r="G53">
-        <v>0.3337</v>
+        <v>0.55089999999999995</v>
       </c>
       <c r="H53">
-        <v>0.72419999999999995</v>
+        <v>0.68779999999999997</v>
       </c>
       <c r="I53">
-        <v>4</v>
-      </c>
-      <c r="J53">
-        <v>7.4200000000000002E-2</v>
+        <v>2</v>
+      </c>
+      <c r="J53" t="s">
+        <v>72</v>
       </c>
       <c r="K53">
-        <v>0.94179999999999997</v>
+        <v>1</v>
       </c>
       <c r="L53">
-        <v>1.66E-2</v>
+        <v>3.9899999999999998E-2</v>
       </c>
       <c r="M53">
-        <v>0.62570000000000003</v>
+        <v>0.35370000000000001</v>
       </c>
       <c r="N53">
-        <v>4</v>
-      </c>
-      <c r="O53">
-        <v>0.1056</v>
+        <v>2</v>
+      </c>
+      <c r="O53" t="s">
+        <v>72</v>
       </c>
       <c r="P53">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>3.8799000000000001</v>
+        <v>2.9714</v>
       </c>
       <c r="R53">
-        <v>3.6467000000000001</v>
+        <v>3.3530000000000002</v>
       </c>
       <c r="S53">
-        <v>90</v>
+        <v>15971</v>
       </c>
       <c r="T53" t="s">
         <v>72</v>
       </c>
       <c r="U53" t="s">
-        <v>99</v>
+        <v>113</v>
+      </c>
+      <c r="V53" t="s">
+        <v>205</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="B54">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f>LEN(A54)</f>
+        <v>20</v>
       </c>
       <c r="C54" t="str">
-        <f t="shared" si="7"/>
-        <v>Gobiodon histrio'</v>
+        <f>RIGHT(A54,B54-5)</f>
+        <v>Pecten maximus'</v>
       </c>
       <c r="D54">
-        <f t="shared" si="8"/>
-        <v>17</v>
+        <f>LEN(C54)</f>
+        <v>15</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="10"/>
-        <v>gobiodon histrio</v>
+        <f>LOWER(LEFT(C54,D54-1))</f>
+        <v>pecten maximus</v>
       </c>
       <c r="F54">
         <f>VLOOKUP(E54,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>276928</v>
+        <v>140712</v>
       </c>
       <c r="G54">
-        <v>-0.1525</v>
+        <v>0.62860000000000005</v>
       </c>
       <c r="H54">
-        <v>1.2281</v>
+        <v>0.13200000000000001</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J54">
-        <v>0.1502</v>
+        <v>9.7500000000000003E-2</v>
       </c>
       <c r="K54">
-        <v>0.95850000000000002</v>
+        <v>0.44169999999999998</v>
       </c>
       <c r="L54">
-        <v>9.5999999999999992E-3</v>
+        <v>4.6800000000000001E-2</v>
       </c>
       <c r="M54">
-        <v>0.84399999999999997</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O54">
-        <v>0.17499999999999999</v>
+        <v>2.9000000000000001E-2</v>
       </c>
       <c r="P54">
-        <v>0.87070000000000003</v>
+        <v>0.96879999999999999</v>
       </c>
       <c r="Q54">
-        <v>4.4436999999999998</v>
+        <v>4.3829000000000002</v>
       </c>
       <c r="R54">
-        <v>4.0080999999999998</v>
+        <v>4.4764999999999997</v>
       </c>
       <c r="S54">
-        <v>276</v>
+        <v>1269</v>
       </c>
       <c r="T54" t="s">
         <v>72</v>
       </c>
       <c r="U54" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="V54" t="s">
+        <v>196</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B55">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f>LEN(A55)</f>
+        <v>21</v>
       </c>
       <c r="C55" t="str">
-        <f t="shared" si="7"/>
-        <v>Melanostigma pammelas'</v>
+        <f>RIGHT(A55,B55-5)</f>
+        <v>Penaeus aztecus'</v>
       </c>
       <c r="D55">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f>LEN(C55)</f>
+        <v>16</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="10"/>
-        <v>melanostigma pammelas</v>
+        <f>LOWER(LEFT(C55,D55-1))</f>
+        <v>penaeus aztecus</v>
       </c>
       <c r="F55">
         <f>VLOOKUP(E55,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>274134</v>
-      </c>
-      <c r="G55">
-        <v>0.9456</v>
-      </c>
-      <c r="H55">
-        <v>1.6820999999999999</v>
+        <v>395176</v>
+      </c>
+      <c r="G55" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" t="s">
+        <v>72</v>
       </c>
       <c r="I55">
-        <v>4</v>
-      </c>
-      <c r="J55">
-        <v>5.3E-3</v>
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>72</v>
       </c>
       <c r="K55">
-        <v>0.99690000000000001</v>
+        <v>0</v>
       </c>
       <c r="L55">
-        <v>3.9600000000000003E-2</v>
+        <v>0.10440000000000001</v>
       </c>
       <c r="M55">
-        <v>0.86140000000000005</v>
+        <v>0.2157</v>
       </c>
       <c r="N55">
-        <v>4</v>
-      </c>
-      <c r="O55">
-        <v>9.1200000000000003E-2</v>
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>72</v>
       </c>
       <c r="P55">
-        <v>0.91510000000000002</v>
-      </c>
-      <c r="Q55" t="s">
-        <v>146</v>
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>1.3067</v>
       </c>
       <c r="R55">
-        <v>1.6</v>
+        <v>1.2364999999999999</v>
       </c>
       <c r="S55">
-        <v>178</v>
+        <v>51073</v>
       </c>
       <c r="T55" t="s">
         <v>72</v>
       </c>
       <c r="U55" t="s">
-        <v>102</v>
+        <v>114</v>
+      </c>
+      <c r="V55" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f>LEN(A56)</f>
+        <v>22</v>
       </c>
       <c r="C56" t="str">
-        <f t="shared" si="7"/>
-        <v>Oreochromis niloticus'</v>
+        <f>RIGHT(A56,B56-5)</f>
+        <v>Penaeus vannamei'</v>
       </c>
       <c r="D56">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f>LEN(C56)</f>
+        <v>17</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="10"/>
-        <v>oreochromis niloticus</v>
+        <f>LOWER(LEFT(C56,D56-1))</f>
+        <v>penaeus vannamei</v>
       </c>
       <c r="F56">
         <f>VLOOKUP(E56,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>293639</v>
+        <v>377748</v>
       </c>
       <c r="G56" t="s">
         <v>72</v>
@@ -11372,124 +11711,129 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>1.95E-2</v>
+        <v>1.6799999999999999E-2</v>
       </c>
       <c r="M56">
-        <v>0.2732</v>
+        <v>0.28670000000000001</v>
       </c>
       <c r="N56">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O56">
-        <v>3.6900000000000002E-2</v>
+        <v>2.0999999999999999E-3</v>
       </c>
       <c r="P56">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="Q56" t="s">
-        <v>72</v>
-      </c>
-      <c r="R56" t="s">
-        <v>72</v>
+        <v>0.69259999999999999</v>
+      </c>
+      <c r="Q56">
+        <v>7.0952999999999999</v>
+      </c>
+      <c r="R56">
+        <v>7.4218999999999999</v>
       </c>
       <c r="S56">
-        <v>145</v>
-      </c>
-      <c r="T56">
-        <v>3.4803000000000002</v>
+        <v>17</v>
+      </c>
+      <c r="T56" t="s">
+        <v>72</v>
       </c>
       <c r="U56" t="s">
-        <v>108</v>
+        <v>115</v>
+      </c>
+      <c r="V56" t="s">
+        <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="B57">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f>LEN(A57)</f>
+        <v>29</v>
       </c>
       <c r="C57" t="str">
-        <f t="shared" si="7"/>
-        <v>Pandalus borealis'</v>
+        <f>RIGHT(A57,B57-5)</f>
+        <v>Phorgulsergia bisulcata'</v>
       </c>
       <c r="D57">
-        <f t="shared" si="8"/>
-        <v>18</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="10"/>
-        <v>pandalus borealis</v>
+        <f>LEN(C57)</f>
+        <v>24</v>
+      </c>
+      <c r="E57" t="s">
+        <v>151</v>
       </c>
       <c r="F57">
         <f>VLOOKUP(E57,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>107649</v>
+        <v>1056510</v>
       </c>
       <c r="G57">
-        <v>-0.25950000000000001</v>
+        <v>0.84970000000000001</v>
       </c>
       <c r="H57">
-        <v>0.57599999999999996</v>
+        <v>0.42470000000000002</v>
       </c>
       <c r="I57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J57">
-        <v>2.9499999999999998E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="K57">
-        <v>0.99819999999999998</v>
+        <v>0.95950000000000002</v>
       </c>
       <c r="L57">
-        <v>0.1003</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="M57">
-        <v>0.91810000000000003</v>
+        <v>0.5</v>
       </c>
       <c r="N57">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O57">
-        <v>5.7500000000000002E-2</v>
+        <v>2.1100000000000001E-2</v>
       </c>
       <c r="P57">
-        <v>0.998</v>
-      </c>
-      <c r="Q57">
-        <v>3.8147000000000002</v>
-      </c>
-      <c r="R57">
-        <v>3.9</v>
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>72</v>
+      </c>
+      <c r="R57" t="s">
+        <v>72</v>
       </c>
       <c r="S57">
-        <v>16951</v>
+        <v>0</v>
       </c>
       <c r="T57" t="s">
         <v>72</v>
       </c>
       <c r="U57" t="s">
-        <v>110</v>
+        <v>74</v>
+      </c>
+      <c r="V57" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58">
-        <f t="shared" si="6"/>
+        <f>LEN(A58)</f>
         <v>27</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="7"/>
+        <f>RIGHT(A58,B58-5)</f>
         <v>Pleuroncodes planipes'</v>
       </c>
       <c r="D58">
-        <f t="shared" si="8"/>
+        <f>LEN(C58)</f>
         <v>22</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(LEFT(C58,D58-1))</f>
         <v>pleuroncodes planipes</v>
       </c>
       <c r="F58">
@@ -11539,27 +11883,30 @@
         <v>72</v>
       </c>
       <c r="U58" t="s">
-        <v>75</v>
+        <v>155</v>
+      </c>
+      <c r="V58" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:22" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59">
-        <f t="shared" si="6"/>
+        <f>LEN(A59)</f>
         <v>17</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f t="shared" si="7"/>
+        <f>RIGHT(A59,B59-5)</f>
         <v>Salmo salar'</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" si="8"/>
+        <f>LEN(C59)</f>
         <v>12</v>
       </c>
       <c r="E59" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f>LOWER(LEFT(C59,D59-1))</f>
         <v>salmo salar</v>
       </c>
       <c r="F59" s="1">
@@ -11608,242 +11955,254 @@
         <v>4.03</v>
       </c>
       <c r="U59" t="s">
-        <v>118</v>
+        <v>116</v>
+      </c>
+      <c r="V59" t="s">
+        <v>182</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B60">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f>LEN(A60)</f>
+        <v>22</v>
       </c>
       <c r="C60" t="str">
-        <f t="shared" si="7"/>
-        <v>Centropristis striata'</v>
+        <f>RIGHT(A60,B60-5)</f>
+        <v>Salpa fusiformis'</v>
       </c>
       <c r="D60">
-        <f t="shared" si="8"/>
-        <v>22</v>
+        <f>LEN(C60)</f>
+        <v>17</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="10"/>
-        <v>centropristis striata</v>
+        <f>LOWER(LEFT(C60,D60-1))</f>
+        <v>salpa fusiformis</v>
       </c>
       <c r="F60">
         <f>VLOOKUP(E60,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>159348</v>
+        <v>137272</v>
       </c>
       <c r="G60">
-        <v>0.82520000000000004</v>
+        <v>-7.2400000000000006E-2</v>
       </c>
       <c r="H60">
-        <v>0.62480000000000002</v>
+        <v>0.87</v>
       </c>
       <c r="I60">
-        <v>5</v>
-      </c>
-      <c r="J60">
-        <v>1.04E-2</v>
+        <v>2</v>
+      </c>
+      <c r="J60" t="s">
+        <v>72</v>
       </c>
       <c r="K60">
-        <v>0.94699999999999995</v>
+        <v>1</v>
       </c>
       <c r="L60">
-        <v>4.2599999999999999E-2</v>
+        <v>2.8500000000000001E-2</v>
       </c>
       <c r="M60">
-        <v>0.23369999999999999</v>
+        <v>0.58740000000000003</v>
       </c>
       <c r="N60">
-        <v>5</v>
-      </c>
-      <c r="O60">
-        <v>5.9999999999999995E-4</v>
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>72</v>
       </c>
       <c r="P60">
-        <v>0.82809999999999995</v>
+        <v>1</v>
       </c>
       <c r="Q60">
-        <v>3.2930000000000001</v>
+        <v>4.9497999999999998</v>
       </c>
       <c r="R60">
-        <v>3.2682000000000002</v>
+        <v>4.2458</v>
       </c>
       <c r="S60">
-        <v>11356</v>
-      </c>
-      <c r="T60">
-        <v>4.4412000000000003</v>
+        <v>1551</v>
+      </c>
+      <c r="T60" t="s">
+        <v>72</v>
       </c>
       <c r="U60" t="s">
-        <v>86</v>
+        <v>117</v>
+      </c>
+      <c r="V60" t="s">
+        <v>209</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B61">
-        <f t="shared" si="6"/>
-        <v>23</v>
+        <f>LEN(A61)</f>
+        <v>25</v>
       </c>
       <c r="C61" t="str">
-        <f t="shared" si="7"/>
-        <v>Zoarces viviparus'</v>
+        <f>RIGHT(A61,B61-5)</f>
+        <v>Sciaenops ocellatus'</v>
       </c>
       <c r="D61">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f>LEN(C61)</f>
+        <v>20</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="10"/>
-        <v>zoarces viviparus</v>
+        <f>LOWER(LEFT(C61,D61-1))</f>
+        <v>sciaenops ocellatus</v>
       </c>
       <c r="F61">
         <f>VLOOKUP(E61,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>127123</v>
-      </c>
-      <c r="G61" t="s">
-        <v>72</v>
-      </c>
-      <c r="H61" t="s">
-        <v>72</v>
+        <v>159335</v>
+      </c>
+      <c r="G61">
+        <v>0.92589999999999995</v>
+      </c>
+      <c r="H61">
+        <v>0.43440000000000001</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" t="s">
         <v>72</v>
       </c>
       <c r="K61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L61">
-        <v>5.5500000000000001E-2</v>
+        <v>4.3700000000000003E-2</v>
       </c>
       <c r="M61">
-        <v>0.78939999999999999</v>
+        <v>0.18740000000000001</v>
       </c>
       <c r="N61">
-        <v>5</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>72</v>
       </c>
       <c r="P61">
-        <v>0.93120000000000003</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>2.8637000000000001</v>
-      </c>
-      <c r="R61" t="s">
-        <v>72</v>
+        <v>3.3</v>
+      </c>
+      <c r="R61">
+        <v>3.2</v>
       </c>
       <c r="S61">
-        <v>19915</v>
-      </c>
-      <c r="T61" t="s">
-        <v>72</v>
+        <v>22792</v>
+      </c>
+      <c r="T61">
+        <v>3.3391000000000002</v>
       </c>
       <c r="U61" t="s">
-        <v>129</v>
+        <v>118</v>
+      </c>
+      <c r="V61" t="s">
+        <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="B62">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f>LEN(A62)</f>
+        <v>27</v>
       </c>
       <c r="C62" t="str">
-        <f t="shared" si="7"/>
-        <v>Acipenser brevirostrum'</v>
+        <f>RIGHT(A62,B62-5)</f>
+        <v>Scyliorhinus canicula'</v>
       </c>
       <c r="D62">
-        <f t="shared" si="8"/>
-        <v>23</v>
+        <f>LEN(C62)</f>
+        <v>22</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="10"/>
-        <v>acipenser brevirostrum</v>
+        <f>LOWER(LEFT(C62,D62-1))</f>
+        <v>scyliorhinus canicula</v>
       </c>
       <c r="F62">
         <f>VLOOKUP(E62,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>157869</v>
-      </c>
-      <c r="G62" t="s">
-        <v>72</v>
-      </c>
-      <c r="H62" t="s">
-        <v>72</v>
+        <v>105814</v>
+      </c>
+      <c r="G62">
+        <v>0.92030000000000001</v>
+      </c>
+      <c r="H62">
+        <v>0.64359999999999995</v>
       </c>
       <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62" t="s">
-        <v>72</v>
+        <v>3</v>
+      </c>
+      <c r="J62">
+        <v>2.5100000000000001E-2</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>0.98660000000000003</v>
       </c>
       <c r="L62">
-        <v>4.5199999999999997E-2</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="M62">
-        <v>0.36259999999999998</v>
+        <v>0.23169999999999999</v>
       </c>
       <c r="N62">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O62">
-        <v>1.2500000000000001E-2</v>
+        <v>2.63E-2</v>
       </c>
       <c r="P62">
-        <v>0.5746</v>
+        <v>0.95679999999999998</v>
       </c>
       <c r="Q62">
-        <v>4.5134999999999996</v>
-      </c>
-      <c r="R62" t="s">
-        <v>72</v>
+        <v>2.0356000000000001</v>
+      </c>
+      <c r="R62">
+        <v>2.1103000000000001</v>
       </c>
       <c r="S62">
-        <v>68</v>
+        <v>103926</v>
       </c>
       <c r="T62" t="s">
         <v>72</v>
       </c>
       <c r="U62" t="s">
-        <v>77</v>
+        <v>119</v>
+      </c>
+      <c r="V62" t="s">
+        <v>202</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f>LEN(A63)</f>
         <v>23</v>
       </c>
-      <c r="B63">
-        <f t="shared" si="6"/>
+      <c r="C63" t="str">
+        <f>RIGHT(A63,B63-5)</f>
+        <v>Sepia officinalis'</v>
+      </c>
+      <c r="D63">
+        <f>LEN(C63)</f>
         <v>18</v>
       </c>
-      <c r="C63" t="str">
-        <f t="shared" si="7"/>
-        <v>Gadus Morhua'</v>
-      </c>
-      <c r="D63">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
       <c r="E63" t="str">
-        <f t="shared" si="10"/>
-        <v>gadus morhua</v>
+        <f>LOWER(LEFT(C63,D63-1))</f>
+        <v>sepia officinalis</v>
       </c>
       <c r="F63">
         <f>VLOOKUP(E63,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>126436</v>
+        <v>141444</v>
       </c>
       <c r="G63" t="s">
         <v>72</v>
@@ -11861,479 +12220,498 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>5.8000000000000003E-2</v>
+        <v>1.4800000000000001E-2</v>
       </c>
       <c r="M63">
-        <v>1.1234</v>
+        <v>0.83499999999999996</v>
       </c>
       <c r="N63">
-        <v>6</v>
-      </c>
-      <c r="O63">
-        <v>4.7000000000000002E-3</v>
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
       </c>
       <c r="P63">
-        <v>0.94640000000000002</v>
-      </c>
-      <c r="Q63" t="s">
-        <v>72</v>
-      </c>
-      <c r="R63" t="s">
-        <v>72</v>
+        <v>1</v>
+      </c>
+      <c r="Q63">
+        <v>3.9264000000000001</v>
+      </c>
+      <c r="R63">
+        <v>2.6</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>3453</v>
       </c>
       <c r="T63" t="s">
         <v>72</v>
       </c>
       <c r="U63" t="s">
-        <v>94</v>
+        <v>120</v>
+      </c>
+      <c r="V63" t="s">
+        <v>195</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B64">
-        <f t="shared" si="6"/>
-        <v>26</v>
+        <f>LEN(A64)</f>
+        <v>20</v>
       </c>
       <c r="C64" t="str">
-        <f t="shared" si="7"/>
-        <v>Systellaspis debilis'</v>
+        <f>RIGHT(A64,B64-5)</f>
+        <v>Sergia fulgens'</v>
       </c>
       <c r="D64">
-        <f t="shared" si="8"/>
-        <v>21</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="10"/>
-        <v>systellaspis debilis</v>
+        <f>LEN(C64)</f>
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>154</v>
       </c>
       <c r="F64">
         <f>VLOOKUP(E64,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>107605</v>
+        <v>1056490</v>
       </c>
       <c r="G64">
-        <v>0.77959999999999996</v>
+        <v>1.0758000000000001</v>
       </c>
       <c r="H64">
-        <v>0.41870000000000002</v>
+        <v>0.76959999999999995</v>
       </c>
       <c r="I64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J64">
-        <v>8.0000000000000004E-4</v>
+        <v>5.4000000000000003E-3</v>
       </c>
       <c r="K64">
-        <v>0.89290000000000003</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="L64">
-        <v>4.4999999999999998E-2</v>
+        <v>7.8E-2</v>
       </c>
       <c r="M64">
-        <v>0.22700000000000001</v>
+        <v>0.5625</v>
       </c>
       <c r="N64">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O64">
-        <v>1E-4</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="P64">
-        <v>0.79179999999999995</v>
-      </c>
-      <c r="Q64">
-        <v>2.2841999999999998</v>
+        <v>1</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>143</v>
       </c>
       <c r="R64">
-        <v>1.8355999999999999</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S64">
-        <v>1296</v>
+        <v>41</v>
       </c>
       <c r="T64" t="s">
         <v>72</v>
       </c>
       <c r="U64" t="s">
-        <v>126</v>
+        <v>74</v>
+      </c>
+      <c r="V64" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B65">
-        <f t="shared" si="6"/>
-        <v>22</v>
+        <f>LEN(A65)</f>
+        <v>20</v>
       </c>
       <c r="C65" t="str">
-        <f t="shared" si="7"/>
-        <v>Penaeus vannamei'</v>
+        <f>RIGHT(A65,B65-5)</f>
+        <v>Sergia grandis'</v>
       </c>
       <c r="D65">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="10"/>
-        <v>penaeus vannamei</v>
+        <f>LEN(C65)</f>
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>151</v>
       </c>
       <c r="F65">
         <f>VLOOKUP(E65,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>377748</v>
-      </c>
-      <c r="G65" t="s">
-        <v>72</v>
-      </c>
-      <c r="H65" t="s">
-        <v>72</v>
+        <v>1056510</v>
+      </c>
+      <c r="G65">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="H65">
+        <v>0.55079999999999996</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
         <v>72</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L65">
-        <v>1.6799999999999999E-2</v>
+        <v>4.6100000000000002E-2</v>
       </c>
       <c r="M65">
-        <v>0.28670000000000001</v>
+        <v>0.42670000000000002</v>
       </c>
       <c r="N65">
-        <v>7</v>
-      </c>
-      <c r="O65">
-        <v>2.0999999999999999E-3</v>
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>72</v>
       </c>
       <c r="P65">
-        <v>0.69259999999999999</v>
+        <v>1</v>
       </c>
       <c r="Q65">
-        <v>7.0952999999999999</v>
+        <v>1.9941</v>
       </c>
       <c r="R65">
-        <v>7.4218999999999999</v>
+        <v>1.3</v>
       </c>
       <c r="S65">
-        <v>17</v>
+        <v>225</v>
       </c>
       <c r="T65" t="s">
         <v>72</v>
       </c>
       <c r="U65" t="s">
-        <v>117</v>
+        <v>76</v>
+      </c>
+      <c r="V65" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B66">
-        <f t="shared" ref="B66:B73" si="11">LEN(A66)</f>
-        <v>20</v>
+        <f>LEN(A66)</f>
+        <v>23</v>
       </c>
       <c r="C66" t="str">
-        <f t="shared" ref="C66:C73" si="12">RIGHT(A66,B66-5)</f>
-        <v>Styela plicata'</v>
+        <f>RIGHT(A66,B66-5)</f>
+        <v>Sergia tenuiremis'</v>
       </c>
       <c r="D66">
-        <f t="shared" ref="D66:D73" si="13">LEN(C66)</f>
-        <v>15</v>
+        <f>LEN(C66)</f>
+        <v>18</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="10"/>
-        <v>styela plicata</v>
+        <f>LOWER(LEFT(C66,D66-1))</f>
+        <v>sergia tenuiremis</v>
       </c>
       <c r="F66">
         <f>VLOOKUP(E66,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>103936</v>
+        <v>107138</v>
       </c>
       <c r="G66">
-        <v>0.43380000000000002</v>
+        <v>0.69640000000000002</v>
       </c>
       <c r="H66">
-        <v>0.34660000000000002</v>
+        <v>0.35349999999999998</v>
       </c>
       <c r="I66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J66">
-        <v>1E-4</v>
+        <v>0.13159999999999999</v>
       </c>
       <c r="K66">
-        <v>0.9294</v>
+        <v>0.70679999999999998</v>
       </c>
       <c r="L66">
-        <v>0.16089999999999999</v>
+        <v>5.5199999999999999E-2</v>
       </c>
       <c r="M66">
-        <v>-0.191</v>
+        <v>0.35189999999999999</v>
       </c>
       <c r="N66">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>1.7899999999999999E-2</v>
       </c>
       <c r="P66">
-        <v>0.82240000000000002</v>
-      </c>
-      <c r="Q66">
-        <v>1.4098999999999999</v>
+        <v>0.99650000000000005</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>144</v>
       </c>
       <c r="R66">
-        <v>1.4907999999999999</v>
+        <v>3.3290000000000002</v>
       </c>
       <c r="S66">
-        <v>752</v>
+        <v>156</v>
       </c>
       <c r="T66" t="s">
         <v>72</v>
       </c>
       <c r="U66" t="s">
-        <v>125</v>
+        <v>74</v>
+      </c>
+      <c r="V66" t="s">
+        <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B67">
-        <f t="shared" si="11"/>
-        <v>19</v>
+        <f>LEN(A67)</f>
+        <v>31</v>
       </c>
       <c r="C67" t="str">
-        <f t="shared" si="12"/>
-        <v>Dentex dentex'</v>
+        <f>RIGHT(A67,B67-5)</f>
+        <v>Stenobrachius leucopsarus'</v>
       </c>
       <c r="D67">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f>LEN(C67)</f>
+        <v>26</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="10"/>
-        <v>dentex dentex</v>
+        <f>LOWER(LEFT(C67,D67-1))</f>
+        <v>stenobrachius leucopsarus</v>
       </c>
       <c r="F67">
         <f>VLOOKUP(E67,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>273962</v>
-      </c>
-      <c r="G67" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" t="s">
-        <v>72</v>
+        <v>254363</v>
+      </c>
+      <c r="G67">
+        <v>0.85089999999999999</v>
+      </c>
+      <c r="H67">
+        <v>0.69199999999999995</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>72</v>
       </c>
       <c r="K67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L67">
-        <v>6.4699999999999994E-2</v>
+        <v>4.2700000000000002E-2</v>
       </c>
       <c r="M67">
-        <v>0.1396</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="N67">
-        <v>8</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O67" t="s">
+        <v>72</v>
       </c>
       <c r="P67">
-        <v>0.76759999999999995</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>2.8249</v>
-      </c>
-      <c r="R67">
-        <v>2.8479999999999999</v>
+        <v>6.9173</v>
+      </c>
+      <c r="R67" t="s">
+        <v>72</v>
       </c>
       <c r="S67">
-        <v>272</v>
+        <v>5247</v>
       </c>
       <c r="T67" t="s">
         <v>72</v>
       </c>
       <c r="U67" t="s">
-        <v>90</v>
+        <v>121</v>
+      </c>
+      <c r="V67" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="B68">
-        <f t="shared" si="11"/>
-        <v>23</v>
+        <f>LEN(A68)</f>
+        <v>20</v>
       </c>
       <c r="C68" t="str">
-        <f t="shared" si="12"/>
-        <v>Diplodus puntazzo'</v>
+        <f>RIGHT(A68,B68-5)</f>
+        <v>Styela plicata'</v>
       </c>
       <c r="D68">
-        <f t="shared" si="13"/>
-        <v>18</v>
+        <f>LEN(C68)</f>
+        <v>15</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="10"/>
-        <v>diplodus puntazzo</v>
+        <f>LOWER(LEFT(C68,D68-1))</f>
+        <v>styela plicata</v>
       </c>
       <c r="F68">
         <f>VLOOKUP(E68,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>127052</v>
-      </c>
-      <c r="G68" t="s">
-        <v>72</v>
-      </c>
-      <c r="H68" t="s">
-        <v>72</v>
+        <v>103936</v>
+      </c>
+      <c r="G68">
+        <v>0.43380000000000002</v>
+      </c>
+      <c r="H68">
+        <v>0.34660000000000002</v>
       </c>
       <c r="I68">
+        <v>7</v>
+      </c>
+      <c r="J68">
+        <v>1E-4</v>
+      </c>
+      <c r="K68">
+        <v>0.9294</v>
+      </c>
+      <c r="L68">
+        <v>0.16089999999999999</v>
+      </c>
+      <c r="M68">
+        <v>-0.191</v>
+      </c>
+      <c r="N68">
+        <v>7</v>
+      </c>
+      <c r="O68">
         <v>0</v>
       </c>
-      <c r="J68" t="s">
-        <v>72</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>5.7700000000000001E-2</v>
-      </c>
-      <c r="M68">
-        <v>0.19850000000000001</v>
-      </c>
-      <c r="N68">
-        <v>9</v>
-      </c>
-      <c r="O68">
-        <v>1E-4</v>
-      </c>
       <c r="P68">
-        <v>0.3483</v>
+        <v>0.82240000000000002</v>
       </c>
       <c r="Q68">
-        <v>2.3584999999999998</v>
+        <v>1.4098999999999999</v>
       </c>
       <c r="R68">
-        <v>2.5</v>
+        <v>1.4907999999999999</v>
       </c>
       <c r="S68">
-        <v>214</v>
+        <v>752</v>
       </c>
       <c r="T68" t="s">
         <v>72</v>
       </c>
       <c r="U68" t="s">
-        <v>91</v>
+        <v>122</v>
+      </c>
+      <c r="V68" t="s">
+        <v>165</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B69">
-        <f t="shared" si="11"/>
-        <v>24</v>
+        <f>LEN(A69)</f>
+        <v>26</v>
       </c>
       <c r="C69" t="str">
-        <f t="shared" si="12"/>
-        <v>Maja brachydactyla'</v>
+        <f>RIGHT(A69,B69-5)</f>
+        <v>Systellaspis debilis'</v>
       </c>
       <c r="D69">
-        <f t="shared" si="13"/>
-        <v>19</v>
+        <f>LEN(C69)</f>
+        <v>21</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="10"/>
-        <v>maja brachydactyla</v>
+        <f>LOWER(LEFT(C69,D69-1))</f>
+        <v>systellaspis debilis</v>
       </c>
       <c r="F69">
         <f>VLOOKUP(E69,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>107347</v>
-      </c>
-      <c r="G69" t="s">
-        <v>72</v>
-      </c>
-      <c r="H69" t="s">
-        <v>72</v>
+        <v>107605</v>
+      </c>
+      <c r="G69">
+        <v>0.77959999999999996</v>
+      </c>
+      <c r="H69">
+        <v>0.41870000000000002</v>
       </c>
       <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>72</v>
+        <v>6</v>
+      </c>
+      <c r="J69">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>0.89290000000000003</v>
       </c>
       <c r="L69">
-        <v>5.9900000000000002E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="M69">
-        <v>0.36370000000000002</v>
+        <v>0.22700000000000001</v>
       </c>
       <c r="N69">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>1E-4</v>
       </c>
       <c r="P69">
-        <v>0.40570000000000001</v>
+        <v>0.79179999999999995</v>
       </c>
       <c r="Q69">
-        <v>3.3788</v>
+        <v>2.2841999999999998</v>
       </c>
       <c r="R69">
-        <v>3.8961000000000001</v>
+        <v>1.8355999999999999</v>
       </c>
       <c r="S69">
-        <v>50</v>
+        <v>1296</v>
       </c>
       <c r="T69" t="s">
         <v>72</v>
       </c>
       <c r="U69" t="s">
-        <v>101</v>
+        <v>123</v>
+      </c>
+      <c r="V69" t="s">
+        <v>160</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="B70">
-        <f t="shared" si="11"/>
-        <v>22</v>
+        <f>LEN(A70)</f>
+        <v>31</v>
       </c>
       <c r="C70" t="str">
-        <f t="shared" si="12"/>
-        <v>Octopus vulgaris'</v>
+        <f>RIGHT(A70,B70-5)</f>
+        <v>Tarletonbeania crenularis'</v>
       </c>
       <c r="D70">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <f>LEN(C70)</f>
+        <v>26</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="10"/>
-        <v>octopus vulgaris</v>
+        <f>LOWER(LEFT(C70,D70-1))</f>
+        <v>tarletonbeania crenularis</v>
       </c>
       <c r="F70">
         <f>VLOOKUP(E70,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>140605</v>
+        <v>282927</v>
       </c>
       <c r="G70" t="s">
         <v>72</v>
@@ -12351,199 +12729,208 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>5.4199999999999998E-2</v>
+        <v>4.8500000000000001E-2</v>
       </c>
       <c r="M70">
-        <v>0.3296</v>
+        <v>0.21329999999999999</v>
       </c>
       <c r="N70">
-        <v>22</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O70" t="s">
+        <v>72</v>
       </c>
       <c r="P70">
-        <v>0.16020000000000001</v>
+        <v>1</v>
       </c>
       <c r="Q70">
-        <v>2.2082000000000002</v>
+        <v>3.9339</v>
       </c>
       <c r="R70">
-        <v>2.4722</v>
+        <v>4.2309999999999999</v>
       </c>
       <c r="S70">
-        <v>3446</v>
+        <v>1766</v>
       </c>
       <c r="T70" t="s">
         <v>72</v>
       </c>
       <c r="U70" t="s">
-        <v>107</v>
+        <v>121</v>
+      </c>
+      <c r="V70" t="s">
+        <v>190</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B71">
-        <f t="shared" si="11"/>
+        <f>LEN(A71)</f>
         <v>29</v>
       </c>
       <c r="C71" t="str">
-        <f t="shared" si="12"/>
-        <v>Gammarus pseudolimnaeus'</v>
+        <f>RIGHT(A71,B71-5)</f>
+        <v>Tautogolabrus adspersus'</v>
       </c>
       <c r="D71">
-        <f t="shared" si="13"/>
+        <f>LEN(C71)</f>
         <v>24</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="10"/>
-        <v>gammarus pseudolimnaeus</v>
+        <f>LOWER(LEFT(C71,D71-1))</f>
+        <v>tautogolabrus adspersus</v>
       </c>
       <c r="F71">
         <f>VLOOKUP(E71,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>490303</v>
-      </c>
-      <c r="G71" t="s">
-        <v>72</v>
-      </c>
-      <c r="H71" t="s">
-        <v>72</v>
+        <v>159785</v>
+      </c>
+      <c r="G71">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="H71">
+        <v>0.32700000000000001</v>
       </c>
       <c r="I71">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J71" t="s">
         <v>72</v>
       </c>
       <c r="K71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L71">
-        <v>4.5600000000000002E-2</v>
+        <v>5.7799999999999997E-2</v>
       </c>
       <c r="M71">
-        <v>0.77459999999999996</v>
+        <v>0.2445</v>
       </c>
       <c r="N71">
+        <v>2</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>3.3374000000000001</v>
+      </c>
+      <c r="R71">
+        <v>3.4472</v>
+      </c>
+      <c r="S71">
+        <v>6454</v>
+      </c>
+      <c r="T71" t="s">
+        <v>72</v>
+      </c>
+      <c r="U71" t="s">
+        <v>124</v>
+      </c>
+      <c r="V71" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f>LEN(A72)</f>
         <v>27</v>
       </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0.6502</v>
-      </c>
-      <c r="Q71" t="s">
-        <v>72</v>
-      </c>
-      <c r="R71" t="s">
-        <v>72</v>
-      </c>
-      <c r="S71">
-        <v>0</v>
-      </c>
-      <c r="T71" t="s">
-        <v>72</v>
-      </c>
-      <c r="U71" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>15</v>
-      </c>
-      <c r="B72">
-        <f t="shared" si="11"/>
-        <v>28</v>
-      </c>
       <c r="C72" t="str">
-        <f t="shared" si="12"/>
-        <v>Chromis atripectoralis'</v>
+        <f>RIGHT(A72,B72-5)</f>
+        <v>Tigriopus brevicornis'</v>
       </c>
       <c r="D72">
-        <f t="shared" si="13"/>
-        <v>23</v>
+        <f>LEN(C72)</f>
+        <v>22</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="10"/>
-        <v>chromis atripectoralis</v>
+        <f>LOWER(LEFT(C72,D72-1))</f>
+        <v>tigriopus brevicornis</v>
       </c>
       <c r="F72">
         <f>VLOOKUP(E72,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>212812</v>
+        <v>116183</v>
       </c>
       <c r="G72">
-        <v>-3.1082000000000001</v>
+        <v>-1.7014</v>
       </c>
       <c r="H72">
-        <v>0.99139999999999995</v>
+        <v>0.56200000000000006</v>
       </c>
       <c r="I72">
-        <v>32</v>
-      </c>
-      <c r="J72">
-        <v>2E-3</v>
+        <v>2</v>
+      </c>
+      <c r="J72" t="s">
+        <v>72</v>
       </c>
       <c r="K72">
-        <v>0.78939999999999999</v>
+        <v>1</v>
       </c>
       <c r="L72">
-        <v>8.5000000000000006E-3</v>
+        <v>8.8000000000000005E-3</v>
       </c>
       <c r="M72">
-        <v>0.69620000000000004</v>
+        <v>0.43969999999999998</v>
       </c>
       <c r="N72">
-        <v>32</v>
-      </c>
-      <c r="O72">
-        <v>1.54E-2</v>
+        <v>2</v>
+      </c>
+      <c r="O72" t="s">
+        <v>72</v>
       </c>
       <c r="P72">
-        <v>0.34549999999999997</v>
-      </c>
-      <c r="Q72">
-        <v>5.2</v>
-      </c>
-      <c r="R72">
-        <v>6.2</v>
+        <v>1</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>72</v>
+      </c>
+      <c r="R72" t="s">
+        <v>72</v>
       </c>
       <c r="S72">
-        <v>3489</v>
-      </c>
-      <c r="T72">
-        <v>7.35</v>
+        <v>7</v>
+      </c>
+      <c r="T72" t="s">
+        <v>72</v>
       </c>
       <c r="U72" t="s">
-        <v>87</v>
+        <v>156</v>
+      </c>
+      <c r="V72" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>71</v>
       </c>
       <c r="B73">
-        <f t="shared" si="11"/>
-        <v>22</v>
+        <f>LEN(A73)</f>
+        <v>23</v>
       </c>
       <c r="C73" t="str">
-        <f t="shared" si="12"/>
-        <v>Cancer irroratus'</v>
+        <f>RIGHT(A73,B73-5)</f>
+        <v>Zoarces viviparus'</v>
       </c>
       <c r="D73">
-        <f t="shared" si="13"/>
-        <v>17</v>
+        <f>LEN(C73)</f>
+        <v>18</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="10"/>
-        <v>cancer irroratus</v>
+        <f>LOWER(LEFT(C73,D73-1))</f>
+        <v>zoarces viviparus</v>
       </c>
       <c r="F73">
         <f>VLOOKUP(E73,[1]allmidata_alphia!$A$2:$E$387,5, FALSE)</f>
-        <v>158057</v>
+        <v>127123</v>
       </c>
       <c r="G73" t="s">
         <v>72</v>
@@ -12561,39 +12948,42 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>2.8500000000000001E-2</v>
+        <v>5.5500000000000001E-2</v>
       </c>
       <c r="M73">
-        <v>0.63370000000000004</v>
+        <v>0.78939999999999999</v>
       </c>
       <c r="N73">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0.54890000000000005</v>
+        <v>0.93120000000000003</v>
       </c>
       <c r="Q73">
-        <v>3.9142000000000001</v>
+        <v>2.8637000000000001</v>
       </c>
       <c r="R73" t="s">
         <v>72</v>
       </c>
       <c r="S73">
-        <v>1280</v>
+        <v>19915</v>
       </c>
       <c r="T73" t="s">
         <v>72</v>
       </c>
       <c r="U73" t="s">
-        <v>83</v>
+        <v>125</v>
+      </c>
+      <c r="V73" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:U73">
-    <sortCondition ref="N2:N73"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V73">
+    <sortCondition ref="C2:C73"/>
     <sortCondition ref="E2:E73"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/MI_traits_Est_by_Curtis.xlsx
+++ b/data/MI_traits_Est_by_Curtis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11008"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/essing/Library/CloudStorage/Dropbox/Desktop/Rcode/Metabolic_Index/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B59AFC-C9B8-7D4F-8AB5-DAA09111BE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC18E31C-A9F5-3045-A5E0-EA3EFAA5D05F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="33560" windowHeight="27360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="214">
   <si>
     <t xml:space="preserve">    'Acanthephyra acutifrons'</t>
   </si>
@@ -7582,13 +7582,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V73"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="G55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E65" sqref="E65"/>
+      <selection pane="bottomRight" activeCell="R76" sqref="R76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7869,9 +7869,6 @@
       <c r="Q4">
         <v>3.1242999999999999</v>
       </c>
-      <c r="R4" t="s">
-        <v>72</v>
-      </c>
       <c r="S4">
         <v>987</v>
       </c>
@@ -8015,9 +8012,6 @@
       <c r="Q6">
         <v>4.5134999999999996</v>
       </c>
-      <c r="R6" t="s">
-        <v>72</v>
-      </c>
       <c r="S6">
         <v>68</v>
       </c>
@@ -8088,9 +8082,6 @@
       <c r="Q7" t="s">
         <v>72</v>
       </c>
-      <c r="R7" t="s">
-        <v>72</v>
-      </c>
       <c r="S7">
         <v>12304</v>
       </c>
@@ -8380,9 +8371,6 @@
       <c r="Q11" t="s">
         <v>72</v>
       </c>
-      <c r="R11" t="s">
-        <v>72</v>
-      </c>
       <c r="S11">
         <v>100</v>
       </c>
@@ -8526,9 +8514,6 @@
       <c r="Q13">
         <v>3.9142000000000001</v>
       </c>
-      <c r="R13" t="s">
-        <v>72</v>
-      </c>
       <c r="S13">
         <v>1280</v>
       </c>
@@ -8599,9 +8584,6 @@
       <c r="Q14" t="s">
         <v>72</v>
       </c>
-      <c r="R14" t="s">
-        <v>72</v>
-      </c>
       <c r="S14">
         <v>281</v>
       </c>
@@ -9401,9 +9383,6 @@
       <c r="Q25" t="s">
         <v>72</v>
       </c>
-      <c r="R25" t="s">
-        <v>72</v>
-      </c>
       <c r="S25">
         <v>0</v>
       </c>
@@ -9619,9 +9598,6 @@
       <c r="Q28" t="s">
         <v>72</v>
       </c>
-      <c r="R28" t="s">
-        <v>72</v>
-      </c>
       <c r="S28">
         <v>0</v>
       </c>
@@ -10348,9 +10324,6 @@
       <c r="Q38" t="s">
         <v>72</v>
       </c>
-      <c r="R38" t="s">
-        <v>72</v>
-      </c>
       <c r="S38">
         <v>0</v>
       </c>
@@ -10859,9 +10832,6 @@
       <c r="Q45" t="s">
         <v>72</v>
       </c>
-      <c r="R45" t="s">
-        <v>72</v>
-      </c>
       <c r="S45">
         <v>145</v>
       </c>
@@ -11368,9 +11338,6 @@
       <c r="Q52" t="s">
         <v>72</v>
       </c>
-      <c r="R52" t="s">
-        <v>72</v>
-      </c>
       <c r="S52">
         <v>0</v>
       </c>
@@ -11732,9 +11699,6 @@
       <c r="Q57" t="s">
         <v>72</v>
       </c>
-      <c r="R57" t="s">
-        <v>72</v>
-      </c>
       <c r="S57">
         <v>0</v>
       </c>
@@ -11805,9 +11769,6 @@
       <c r="Q58" t="s">
         <v>72</v>
       </c>
-      <c r="R58" t="s">
-        <v>72</v>
-      </c>
       <c r="S58">
         <v>81</v>
       </c>
@@ -12459,9 +12420,6 @@
       <c r="Q67">
         <v>6.9173</v>
       </c>
-      <c r="R67" t="s">
-        <v>72</v>
-      </c>
       <c r="S67">
         <v>5247</v>
       </c>
@@ -12824,9 +12782,6 @@
       <c r="Q72" t="s">
         <v>72</v>
       </c>
-      <c r="R72" t="s">
-        <v>72</v>
-      </c>
       <c r="S72">
         <v>7</v>
       </c>
@@ -12897,9 +12852,6 @@
       <c r="Q73">
         <v>2.8637000000000001</v>
       </c>
-      <c r="R73" t="s">
-        <v>72</v>
-      </c>
       <c r="S73">
         <v>19915</v>
       </c>
@@ -12911,6 +12863,18 @@
       </c>
       <c r="V73" t="s">
         <v>180</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R75">
+        <f>PERCENTILE(R2:R72, 0.1)</f>
+        <v>1.5192999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="R76">
+        <f>PERCENTILE(R2:R72, 0.9)</f>
+        <v>4.3022999999999998</v>
       </c>
     </row>
   </sheetData>
